--- a/sriramModel-nelson-atypical-patientID_10-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_10-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.055436225101505</v>
+        <v>1.08485531400618</v>
       </c>
       <c r="C2">
-        <v>1.10066390386504</v>
+        <v>1.017341816283311</v>
       </c>
       <c r="D2">
-        <v>1.052667844670958</v>
+        <v>1.000946466741691</v>
       </c>
       <c r="E2">
-        <v>1.048909504900421</v>
+        <v>1.056080538299649</v>
       </c>
       <c r="F2">
-        <v>1.136676981132026</v>
+        <v>1.101315866307054</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.110600118670307</v>
+        <v>1.168416349456865</v>
       </c>
       <c r="C3">
-        <v>1.200567656619997</v>
+        <v>1.034498749182311</v>
       </c>
       <c r="D3">
-        <v>1.104699829333904</v>
+        <v>1.001860210820641</v>
       </c>
       <c r="E3">
-        <v>1.097030922911206</v>
+        <v>1.11186507535784</v>
       </c>
       <c r="F3">
-        <v>1.272294873127606</v>
+        <v>1.202390999077015</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.165497813761432</v>
+        <v>1.250760303818081</v>
       </c>
       <c r="C4">
-        <v>1.299733362914487</v>
+        <v>1.051475444936957</v>
       </c>
       <c r="D4">
-        <v>1.156108187151585</v>
+        <v>1.002740610241128</v>
       </c>
       <c r="E4">
-        <v>1.144365658364425</v>
+        <v>1.167351873684362</v>
       </c>
       <c r="F4">
-        <v>1.406891888854695</v>
+        <v>1.303223840467097</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.220135208808186</v>
+        <v>1.331956924177182</v>
       </c>
       <c r="C5">
-        <v>1.398181812394908</v>
+        <v>1.068276295450212</v>
       </c>
       <c r="D5">
-        <v>1.206904135629072</v>
+        <v>1.003587002682174</v>
       </c>
       <c r="E5">
-        <v>1.190915104624799</v>
+        <v>1.222538967047492</v>
       </c>
       <c r="F5">
-        <v>1.540503661450263</v>
+        <v>1.40381245011388</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.274517959573549</v>
+        <v>1.412069643295294</v>
       </c>
       <c r="C6">
-        <v>1.495932542135703</v>
+        <v>1.08490540494826</v>
       </c>
       <c r="D6">
-        <v>1.257097931772319</v>
+        <v>1.004398681344</v>
       </c>
       <c r="E6">
-        <v>1.236680610901538</v>
+        <v>1.277424132330764</v>
       </c>
       <c r="F6">
-        <v>1.673163485274862</v>
+        <v>1.504154518752938</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.328651498955446</v>
+        <v>1.491156185803403</v>
       </c>
       <c r="C7">
-        <v>1.593003773928024</v>
+        <v>1.101366618967323</v>
       </c>
       <c r="D7">
-        <v>1.306698948346415</v>
+        <v>1.0051748859172</v>
       </c>
       <c r="E7">
-        <v>1.281663502076399</v>
+        <v>1.332004886831084</v>
       </c>
       <c r="F7">
-        <v>1.804902497189763</v>
+        <v>1.604247320731964</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.382541044185899</v>
+        <v>1.569269405381325</v>
       </c>
       <c r="C8">
-        <v>1.689412452895759</v>
+        <v>1.117663554718169</v>
       </c>
       <c r="D8">
-        <v>1.355715546962164</v>
+        <v>1.005914803600144</v>
       </c>
       <c r="E8">
-        <v>1.325865096699405</v>
+        <v>1.386278459977487</v>
       </c>
       <c r="F8">
-        <v>1.935749789681492</v>
+        <v>1.704087701107176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.436191601769108</v>
+        <v>1.646457806493973</v>
       </c>
       <c r="C9">
-        <v>1.785174224497198</v>
+        <v>1.133799599115944</v>
       </c>
       <c r="D9">
-        <v>1.404155154318655</v>
+        <v>1.006617564422216</v>
       </c>
       <c r="E9">
-        <v>1.369286718972021</v>
+        <v>1.44024179326335</v>
       </c>
       <c r="F9">
-        <v>2.0657325543614</v>
+        <v>1.803672088236602</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.489607967677051</v>
+        <v>1.722765999471213</v>
       </c>
       <c r="C10">
-        <v>1.880303388367348</v>
+        <v>1.149777918609124</v>
       </c>
       <c r="D10">
-        <v>1.452024297365851</v>
+        <v>1.007282232989941</v>
       </c>
       <c r="E10">
-        <v>1.411929710464202</v>
+        <v>1.49389152962002</v>
       </c>
       <c r="F10">
-        <v>2.194876204117942</v>
+        <v>1.902996466597354</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.542794738155614</v>
+        <v>1.79823513186206</v>
       </c>
       <c r="C11">
-        <v>1.974812840175283</v>
+        <v>1.165601471683648</v>
       </c>
       <c r="D11">
-        <v>1.499328595880914</v>
+        <v>1.007907804666709</v>
       </c>
       <c r="E11">
-        <v>1.453795441208738</v>
+        <v>1.547223998962502</v>
       </c>
       <c r="F11">
-        <v>2.323204466516313</v>
+        <v>2.002056357028446</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.595756310895991</v>
+        <v>1.872903279812332</v>
       </c>
       <c r="C12">
-        <v>2.068713986965083</v>
+        <v>1.18127301632204</v>
       </c>
       <c r="D12">
-        <v>1.54607275208846</v>
+        <v>1.008493202145958</v>
       </c>
       <c r="E12">
-        <v>1.494885315438254</v>
+        <v>1.600235205994483</v>
       </c>
       <c r="F12">
-        <v>2.450739460982378</v>
+        <v>2.100846800046188</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.648496883854422</v>
+        <v>1.946805736023744</v>
       </c>
       <c r="C13">
-        <v>2.162016645792003</v>
+        <v>1.196795114148457</v>
       </c>
       <c r="D13">
-        <v>1.592260542912372</v>
+        <v>1.009037269986995</v>
       </c>
       <c r="E13">
-        <v>1.53520077965755</v>
+        <v>1.652920815678634</v>
       </c>
       <c r="F13">
-        <v>2.577501766536886</v>
+        <v>2.199362336291079</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.701020452019404</v>
+        <v>2.019975283247987</v>
       </c>
       <c r="C14">
-        <v>2.254728922572554</v>
+        <v>1.212170134812098</v>
       </c>
       <c r="D14">
-        <v>1.637894807037671</v>
+        <v>1.009538767751267</v>
       </c>
       <c r="E14">
-        <v>1.574743327175991</v>
+        <v>1.705276136939307</v>
       </c>
       <c r="F14">
-        <v>2.70351047989224</v>
+        <v>2.297596984006204</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.753330802014633</v>
+        <v>2.092442445981531</v>
       </c>
       <c r="C15">
-        <v>2.346857067817229</v>
+        <v>1.227400260803227</v>
       </c>
       <c r="D15">
-        <v>1.682977427351777</v>
+        <v>1.009996361523505</v>
       </c>
       <c r="E15">
-        <v>1.613514501265729</v>
+        <v>1.757296106916912</v>
       </c>
       <c r="F15">
-        <v>2.828783262431882</v>
+        <v>2.395544213113089</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.805431501404036</v>
+        <v>2.164235688501853</v>
       </c>
       <c r="C16">
-        <v>2.43840530877658</v>
+        <v>1.242487489959374</v>
       </c>
       <c r="D16">
-        <v>1.727509312538629</v>
+        <v>1.010408615637442</v>
       </c>
       <c r="E16">
-        <v>1.651515905646328</v>
+        <v>1.808975274280691</v>
       </c>
       <c r="F16">
-        <v>2.953336375871556</v>
+        <v>2.493196916211339</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.85732588767982</v>
+        <v>2.23538161208517</v>
       </c>
       <c r="C17">
-        <v>2.52937565839018</v>
+        <v>1.257433638263005</v>
       </c>
       <c r="D17">
-        <v>1.771490363305515</v>
+        <v>1.010773993318503</v>
       </c>
       <c r="E17">
-        <v>1.6887492009235</v>
+        <v>1.860307781209213</v>
       </c>
       <c r="F17">
-        <v>3.077184707302553</v>
+        <v>2.590547381658225</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.909017050684944</v>
+        <v>2.305905114289531</v>
       </c>
       <c r="C18">
-        <v>2.619767701248036</v>
+        <v>1.272240339229531</v>
       </c>
       <c r="D18">
-        <v>1.814919440050237</v>
+        <v>1.011090837778846</v>
       </c>
       <c r="E18">
-        <v>1.725216109508162</v>
+        <v>1.911287344033195</v>
       </c>
       <c r="F18">
-        <v>3.200341784250841</v>
+        <v>2.687587255279326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.960507808439192</v>
+        <v>2.375829533270719</v>
       </c>
       <c r="C19">
-        <v>2.709578356747558</v>
+        <v>1.286909046634028</v>
       </c>
       <c r="D19">
-        <v>1.857794319944624</v>
+        <v>1.011357363050155</v>
       </c>
       <c r="E19">
-        <v>1.760918411952682</v>
+        <v>1.96190723074969</v>
       </c>
       <c r="F19">
-        <v>3.322819779949003</v>
+        <v>2.784307514352504</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.011800677931436</v>
+        <v>2.445176783335706</v>
       </c>
       <c r="C20">
-        <v>2.7988016200244</v>
+        <v>1.301441026003506</v>
       </c>
       <c r="D20">
-        <v>1.900111654516977</v>
+        <v>1.011571643275321</v>
       </c>
       <c r="E20">
-        <v>1.795857948529326</v>
+        <v>2.012160239067223</v>
       </c>
       <c r="F20">
-        <v>3.444629508682763</v>
+        <v>2.880698420305718</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.06289783361032</v>
+        <v>2.513967461996107</v>
       </c>
       <c r="C21">
-        <v>2.887428281837066</v>
+        <v>1.315837361815777</v>
       </c>
       <c r="D21">
-        <v>1.94186691841489</v>
+        <v>1.011731598557772</v>
       </c>
       <c r="E21">
-        <v>1.830036618712334</v>
+        <v>2.062038676388198</v>
       </c>
       <c r="F21">
-        <v>3.565780410891425</v>
+        <v>2.976749475763375</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.113801057190509</v>
+        <v>2.582220958248339</v>
       </c>
       <c r="C22">
-        <v>2.975445629229249</v>
+        <v>1.330098940098794</v>
       </c>
       <c r="D22">
-        <v>1.983054336719849</v>
+        <v>1.011834985005241</v>
       </c>
       <c r="E22">
-        <v>1.863456379735589</v>
+        <v>2.111534346743752</v>
       </c>
       <c r="F22">
-        <v>3.686280527548391</v>
+        <v>3.072449387656059</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.164511674832607</v>
+        <v>2.649955541254096</v>
       </c>
       <c r="C23">
-        <v>3.062837128920611</v>
+        <v>1.344226454623983</v>
       </c>
       <c r="D23">
-        <v>2.023666820155388</v>
+        <v>1.01187937821279</v>
       </c>
       <c r="E23">
-        <v>1.896119244648566</v>
+        <v>2.16063849564267</v>
       </c>
       <c r="F23">
-        <v>3.806136463140093</v>
+        <v>3.167785993350925</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.215030476956565</v>
+        <v>2.717188438779296</v>
       </c>
       <c r="C24">
-        <v>3.14958209535688</v>
+        <v>1.358220388755942</v>
       </c>
       <c r="D24">
-        <v>2.063695880576351</v>
+        <v>1.011862155869047</v>
       </c>
       <c r="E24">
-        <v>1.928027279266822</v>
+        <v>2.209341817245369</v>
       </c>
       <c r="F24">
-        <v>3.925353336286488</v>
+        <v>3.262746234967773</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.265357622871699</v>
+        <v>2.783935911550609</v>
       </c>
       <c r="C25">
-        <v>3.23565536137665</v>
+        <v>1.372081012897239</v>
       </c>
       <c r="D25">
-        <v>2.103131559364508</v>
+        <v>1.011780479326536</v>
       </c>
       <c r="E25">
-        <v>1.959182599628363</v>
+        <v>2.25763438819868</v>
       </c>
       <c r="F25">
-        <v>4.043934716610202</v>
+        <v>3.357316066586506</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.315492518483091</v>
+        <v>2.850213309671191</v>
       </c>
       <c r="C26">
-        <v>3.321026925900412</v>
+        <v>1.385808370302486</v>
       </c>
       <c r="D26">
-        <v>2.141962320343042</v>
+        <v>1.011631269898357</v>
       </c>
       <c r="E26">
-        <v>1.989587366493029</v>
+        <v>2.305505658103125</v>
       </c>
       <c r="F26">
-        <v>4.16188254621273</v>
+        <v>3.4514804145859</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.365433665541315</v>
+        <v>2.916035127401932</v>
       </c>
       <c r="C27">
-        <v>3.405661615761947</v>
+        <v>1.399402257730554</v>
       </c>
       <c r="D27">
-        <v>2.180174930404214</v>
+        <v>1.011411186971324</v>
       </c>
       <c r="E27">
-        <v>2.019243781580246</v>
+        <v>2.352944410889705</v>
       </c>
       <c r="F27">
-        <v>4.279197044672301</v>
+        <v>3.545223088105084</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.415178481518185</v>
+        <v>2.981415044044643</v>
       </c>
       <c r="C28">
-        <v>3.489518753710752</v>
+        <v>1.412862221437799</v>
       </c>
       <c r="D28">
-        <v>2.217754345382341</v>
+        <v>1.0111166018596</v>
       </c>
       <c r="E28">
-        <v>2.048154082784458</v>
+        <v>2.399938731714816</v>
       </c>
       <c r="F28">
-        <v>4.395876592163633</v>
+        <v>3.638526699198421</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.464723077934804</v>
+        <v>3.046365953723861</v>
       </c>
       <c r="C29">
-        <v>3.572551843786004</v>
+        <v>1.426187516319999</v>
       </c>
       <c r="D29">
-        <v>2.254683563957598</v>
+        <v>1.010743569853956</v>
       </c>
       <c r="E29">
-        <v>2.076320538112467</v>
+        <v>2.446475969778079</v>
       </c>
       <c r="F29">
-        <v>4.511917590037753</v>
+        <v>3.731372596131993</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.514061997170373</v>
+        <v>3.110899984804957</v>
       </c>
       <c r="C30">
-        <v>3.654708283408495</v>
+        <v>1.439377107739183</v>
       </c>
       <c r="D30">
-        <v>2.290943519240971</v>
+        <v>1.010287796452534</v>
       </c>
       <c r="E30">
-        <v>2.103745439741604</v>
+        <v>2.492542702680733</v>
       </c>
       <c r="F30">
-        <v>4.627314293208427</v>
+        <v>3.82374072647201</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.563187898738591</v>
+        <v>3.175028500861654</v>
       </c>
       <c r="C31">
-        <v>3.735929112536729</v>
+        <v>1.452429616133392</v>
       </c>
       <c r="D31">
-        <v>2.326512881678681</v>
+        <v>1.009744601540513</v>
       </c>
       <c r="E31">
-        <v>2.130431097698739</v>
+        <v>2.538124687576506</v>
       </c>
       <c r="F31">
-        <v>4.742058609212221</v>
+        <v>3.91560958665158</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.612091170406786</v>
+        <v>3.238762084422779</v>
       </c>
       <c r="C32">
-        <v>3.816148811107312</v>
+        <v>1.465343294154876</v>
       </c>
       <c r="D32">
-        <v>2.361367901454286</v>
+        <v>1.009108880048781</v>
       </c>
       <c r="E32">
-        <v>2.15637983255381</v>
+        <v>2.583206827262997</v>
       </c>
       <c r="F32">
-        <v>4.856139857195372</v>
+        <v>4.006956048768013</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.660759485556379</v>
+        <v>3.302110488355616</v>
       </c>
       <c r="C33">
-        <v>3.895295156662603</v>
+        <v>1.478115983911251</v>
       </c>
       <c r="D33">
-        <v>2.39548220914102</v>
+        <v>1.008375058016565</v>
       </c>
       <c r="E33">
-        <v>2.181593967503692</v>
+        <v>2.627773116510616</v>
       </c>
       <c r="F33">
-        <v>4.969544478378695</v>
+        <v>4.097755284217796</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.709177279304829</v>
+        <v>3.365082555234208</v>
       </c>
       <c r="C34">
-        <v>3.9732891544908</v>
+        <v>1.490745070447118</v>
       </c>
       <c r="D34">
-        <v>2.428826548795818</v>
+        <v>1.007537041660884</v>
       </c>
       <c r="E34">
-        <v>2.206075820394345</v>
+        <v>2.671806598707255</v>
       </c>
       <c r="F34">
-        <v>5.082255687409607</v>
+        <v>4.187980596459895</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.757325137934195</v>
+        <v>3.427686086950771</v>
       </c>
       <c r="C35">
-        <v>4.05004505269391</v>
+        <v>1.503227422413677</v>
       </c>
       <c r="D35">
-        <v>2.46136859769069</v>
+        <v>1.00658816355386</v>
       </c>
       <c r="E35">
-        <v>2.229827695527619</v>
+        <v>2.715289321105998</v>
       </c>
       <c r="F35">
-        <v>5.194253051306142</v>
+        <v>4.277603264879333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.805179128249056</v>
+        <v>3.489927645964859</v>
       </c>
       <c r="C36">
-        <v>4.125470454290519</v>
+        <v>1.515559321283634</v>
       </c>
       <c r="D36">
-        <v>2.493072800024373</v>
+        <v>1.005521123725669</v>
       </c>
       <c r="E36">
-        <v>2.252851873805529</v>
+        <v>2.758202279668653</v>
       </c>
       <c r="F36">
-        <v>5.305511979278022</v>
+        <v>4.366592426849247</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.852709981318169</v>
+        <v>3.551812270696995</v>
       </c>
       <c r="C37">
-        <v>4.199466537695714</v>
+        <v>1.527736379546069</v>
       </c>
       <c r="D37">
-        <v>2.523900073301148</v>
+        <v>1.004327923439933</v>
       </c>
       <c r="E37">
-        <v>2.27515060343939</v>
+        <v>2.800525373735787</v>
       </c>
       <c r="F37">
-        <v>5.416003131137941</v>
+        <v>4.45491481311965</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.899882234210347</v>
+        <v>3.613343087086385</v>
       </c>
       <c r="C38">
-        <v>4.271928395659752</v>
+        <v>1.539753441898488</v>
       </c>
       <c r="D38">
-        <v>2.55380747743604</v>
+        <v>1.002999789439615</v>
       </c>
       <c r="E38">
-        <v>2.296726090266711</v>
+        <v>2.842237354016565</v>
       </c>
       <c r="F38">
-        <v>5.525691665633817</v>
+        <v>4.542534653713581</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.946653281395195</v>
+        <v>3.674520778712781</v>
       </c>
       <c r="C39">
-        <v>4.342745506622779</v>
+        <v>1.551604460698232</v>
       </c>
       <c r="D39">
-        <v>2.582747955698151</v>
+        <v>1.001527096109903</v>
       </c>
       <c r="E39">
-        <v>2.317580486665824</v>
+        <v>2.883315772557972</v>
       </c>
       <c r="F39">
-        <v>5.634536142467586</v>
+        <v>4.629413356894178</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.992972364698008</v>
+        <v>3.735342926916413</v>
       </c>
       <c r="C40">
-        <v>4.411802323212882</v>
+        <v>1.563282353012842</v>
       </c>
       <c r="D40">
-        <v>2.610670119805608</v>
+        <v>0.9998992809300941</v>
       </c>
       <c r="E40">
-        <v>2.337715880689204</v>
+        <v>2.9237369364699</v>
       </c>
       <c r="F40">
-        <v>5.742487559397204</v>
+        <v>4.715509360395993</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.038779555162612</v>
+        <v>3.795803119289157</v>
       </c>
       <c r="C41">
-        <v>4.478979009918428</v>
+        <v>1.574778834347262</v>
       </c>
       <c r="D41">
-        <v>2.637517997421865</v>
+        <v>0.9981047510838426</v>
       </c>
       <c r="E41">
-        <v>2.357134283835492</v>
+        <v>2.963475860930004</v>
       </c>
       <c r="F41">
-        <v>5.849488093758106</v>
+        <v>4.800777830614075</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.084004707561609</v>
+        <v>3.85588989162407</v>
       </c>
       <c r="C42">
-        <v>4.544152316954491</v>
+        <v>1.586084182753418</v>
       </c>
       <c r="D42">
-        <v>2.663230766925011</v>
+        <v>0.9961307825588506</v>
       </c>
       <c r="E42">
-        <v>2.375837619591576</v>
+        <v>3.002506237188121</v>
       </c>
       <c r="F42">
-        <v>5.955469021460276</v>
+        <v>4.885170412643981</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.128566544032279</v>
+        <v>3.915585393190526</v>
       </c>
       <c r="C43">
-        <v>4.60719658299785</v>
+        <v>1.597186985197006</v>
       </c>
       <c r="D43">
-        <v>2.687742544709159</v>
+        <v>0.9939634171825844</v>
       </c>
       <c r="E43">
-        <v>2.393827714906268</v>
+        <v>3.040800386941128</v>
       </c>
       <c r="F43">
-        <v>6.060348685109106</v>
+        <v>4.968634904008752</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.172371897347612</v>
+        <v>3.974863749152</v>
       </c>
       <c r="C44">
-        <v>4.6679848663193</v>
+        <v>1.608073824678039</v>
       </c>
       <c r="D44">
-        <v>2.710982256074121</v>
+        <v>0.9915873565034061</v>
       </c>
       <c r="E44">
-        <v>2.411106284021041</v>
+        <v>3.078329258862481</v>
       </c>
       <c r="F44">
-        <v>6.164029987490718</v>
+        <v>5.051114945238155</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.215315254094389</v>
+        <v>4.033689104520533</v>
       </c>
       <c r="C45">
-        <v>4.726390193093981</v>
+        <v>1.618728889686572</v>
       </c>
       <c r="D45">
-        <v>2.732873598636768</v>
+        <v>0.9889858493481272</v>
       </c>
       <c r="E45">
-        <v>2.427674918114876</v>
+        <v>3.115062412907078</v>
       </c>
       <c r="F45">
-        <v>6.266397050909829</v>
+        <v>5.132549713130257</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.257278470910369</v>
+        <v>4.092013263422447</v>
       </c>
       <c r="C46">
-        <v>4.782286829299228</v>
+        <v>1.629133494690439</v>
       </c>
       <c r="D46">
-        <v>2.753335125043308</v>
+        <v>0.9861405827183912</v>
       </c>
       <c r="E46">
-        <v>2.443535070358315</v>
+        <v>3.150968021800774</v>
       </c>
       <c r="F46">
-        <v>6.367311138883156</v>
+        <v>5.212873564628573</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.298131609024568</v>
+        <v>4.149772912649371</v>
       </c>
       <c r="C47">
-        <v>4.835551852847638</v>
+        <v>1.639265501676617</v>
       </c>
       <c r="D47">
-        <v>2.772280497027861</v>
+        <v>0.9830315796508827</v>
       </c>
       <c r="E47">
-        <v>2.458688045295649</v>
+        <v>3.186012946409546</v>
       </c>
       <c r="F47">
-        <v>6.466605841149118</v>
+        <v>5.292015703935615</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.337733912358949</v>
+        <v>4.206886406863904</v>
       </c>
       <c r="C48">
-        <v>4.886066768216502</v>
+        <v>1.649098627616871</v>
       </c>
       <c r="D48">
-        <v>2.789618975992518</v>
+        <v>0.9796371027990969</v>
       </c>
       <c r="E48">
-        <v>2.473134986288015</v>
+        <v>3.220162746893365</v>
       </c>
       <c r="F48">
-        <v>6.564081263170825</v>
+        <v>5.369899833069424</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.375935699736687</v>
+        <v>4.263250117163117</v>
       </c>
       <c r="C49">
-        <v>4.933718806494201</v>
+        <v>1.658601629188715</v>
       </c>
       <c r="D49">
-        <v>2.80525621673519</v>
+        <v>0.9759335720452613</v>
       </c>
       <c r="E49">
-        <v>2.486876865005479</v>
+        <v>3.25338183044931</v>
       </c>
       <c r="F49">
-        <v>6.65949722724846</v>
+        <v>5.446443830626495</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.412581220991465</v>
+        <v>4.318734492494636</v>
       </c>
       <c r="C50">
-        <v>4.978402636845964</v>
+        <v>1.667737350814055</v>
       </c>
       <c r="D50">
-        <v>2.819095434510838</v>
+        <v>0.9718955097313715</v>
       </c>
       <c r="E50">
-        <v>2.499914471594634</v>
+        <v>3.2856335771646</v>
       </c>
       <c r="F50">
-        <v>6.752565757208576</v>
+        <v>5.521559474239007</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.447512451764443</v>
+        <v>4.373180036973341</v>
       </c>
       <c r="C51">
-        <v>5.020022050728887</v>
+        <v>1.676461645909753</v>
       </c>
       <c r="D51">
-        <v>2.831039020792191</v>
+        <v>0.9674955144346211</v>
       </c>
       <c r="E51">
-        <v>2.512248405994075</v>
+        <v>3.316880609574473</v>
       </c>
       <c r="F51">
-        <v>6.842943262140859</v>
+        <v>5.59515226615659</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.480574112575279</v>
+        <v>4.426392997675045</v>
       </c>
       <c r="C52">
-        <v>5.058492065270705</v>
+        <v>1.684722326222559</v>
       </c>
       <c r="D52">
-        <v>2.840990854649271</v>
+        <v>0.9627042561791456</v>
       </c>
       <c r="E52">
-        <v>2.523879080099994</v>
+        <v>3.347085054567593</v>
       </c>
       <c r="F52">
-        <v>6.930223469453308</v>
+        <v>5.667121326828769</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.924915933682564</v>
+        <v>4.478141718816133</v>
       </c>
       <c r="C53">
-        <v>5.682017008965791</v>
+        <v>1.692458140876755</v>
       </c>
       <c r="D53">
-        <v>3.183630029487484</v>
+        <v>0.9574905346582441</v>
       </c>
       <c r="E53">
-        <v>2.71525874088661</v>
+        <v>3.376208883536968</v>
       </c>
       <c r="F53">
-        <v>8.110280760505763</v>
+        <v>5.737359459276919</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.347469203706034</v>
+        <v>4.528154114594485</v>
       </c>
       <c r="C54">
-        <v>6.271916712990381</v>
+        <v>1.69959803151089</v>
       </c>
       <c r="D54">
-        <v>3.502965711768068</v>
+        <v>0.9518213875720307</v>
       </c>
       <c r="E54">
-        <v>2.899470379136781</v>
+        <v>3.40421437001846</v>
       </c>
       <c r="F54">
-        <v>9.248525305716356</v>
+        <v>5.805753564714206</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.747135427792384</v>
+        <v>4.576116681690181</v>
       </c>
       <c r="C55">
-        <v>6.827884813762544</v>
+        <v>1.706060966528053</v>
       </c>
       <c r="D55">
-        <v>3.798387496835808</v>
+        <v>0.9456622354388293</v>
       </c>
       <c r="E55">
-        <v>3.076527755144038</v>
+        <v>3.4310646527088</v>
       </c>
       <c r="F55">
-        <v>10.33923688668757</v>
+        <v>5.872185306965787</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.123028616587754</v>
+        <v>4.621675948391252</v>
       </c>
       <c r="C56">
-        <v>7.349739513658117</v>
+        <v>1.711756599587801</v>
       </c>
       <c r="D56">
-        <v>4.06939848642535</v>
+        <v>0.938977157835989</v>
       </c>
       <c r="E56">
-        <v>3.246440131269856</v>
+        <v>3.456724390583933</v>
       </c>
       <c r="F56">
-        <v>11.37620883551027</v>
+        <v>5.936532150057771</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.474520728207698</v>
+        <v>4.664443260178179</v>
       </c>
       <c r="C57">
-        <v>7.837444110227668</v>
+        <v>1.716587053717124</v>
       </c>
       <c r="D57">
-        <v>4.315667209131525</v>
+        <v>0.931729153023101</v>
       </c>
       <c r="E57">
-        <v>3.409212199826003</v>
+        <v>3.48116050746556</v>
       </c>
       <c r="F57">
-        <v>12.35309561911724</v>
+        <v>5.998668979106071</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.801271903307038</v>
+        <v>4.704003743600387</v>
       </c>
       <c r="C58">
-        <v>8.291124584826507</v>
+        <v>1.720449929045499</v>
       </c>
       <c r="D58">
-        <v>4.537079912200986</v>
+        <v>0.9238804802252775</v>
       </c>
       <c r="E58">
-        <v>3.56484487003712</v>
+        <v>3.5043430186743</v>
       </c>
       <c r="F58">
-        <v>13.26387249023529</v>
+        <v>6.05847033196792</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.103244735889363</v>
+        <v>4.739929716406495</v>
       </c>
       <c r="C59">
-        <v>8.711083132457384</v>
+        <v>1.723242196586238</v>
       </c>
       <c r="D59">
-        <v>4.733782370205686</v>
+        <v>0.9153930880871974</v>
       </c>
       <c r="E59">
-        <v>3.713336377375875</v>
+        <v>3.526245917335195</v>
       </c>
       <c r="F59">
-        <v>14.10336322448496</v>
+        <v>6.115813339277163</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.380701837310569</v>
+        <v>4.771798207973906</v>
       </c>
       <c r="C60">
-        <v>9.097808098952379</v>
+        <v>1.724864735946613</v>
       </c>
       <c r="D60">
-        <v>4.906211952431136</v>
+        <v>0.9062290977106224</v>
       </c>
       <c r="E60">
-        <v>3.854683370956291</v>
+        <v>3.546848081258066</v>
       </c>
       <c r="F60">
-        <v>14.86775767091502</v>
+        <v>6.170581323068269</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.634187850556945</v>
+        <v>4.799212151644656</v>
       </c>
       <c r="C61">
-        <v>9.451979624750365</v>
+        <v>1.72522681499001</v>
       </c>
       <c r="D61">
-        <v>5.055112140994882</v>
+        <v>0.8963513194200975</v>
       </c>
       <c r="E61">
-        <v>3.988882063351564</v>
+        <v>3.566134148447572</v>
       </c>
       <c r="F61">
-        <v>15.55501333655063</v>
+        <v>6.222668005071444</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.864498499368939</v>
+        <v>4.821823074957931</v>
       </c>
       <c r="C62">
-        <v>9.774470215039882</v>
+        <v>1.72425002780044</v>
       </c>
       <c r="D62">
-        <v>5.181527950751603</v>
+        <v>0.885723800115493</v>
       </c>
       <c r="E62">
-        <v>4.115929810073824</v>
+        <v>3.584095295497747</v>
       </c>
       <c r="F62">
-        <v>16.16506354684017</v>
+        <v>6.271982119194925</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.072639956992058</v>
+        <v>4.839352928935182</v>
       </c>
       <c r="C63">
-        <v>10.06633986442868</v>
+        <v>1.721871315832958</v>
       </c>
       <c r="D63">
-        <v>5.2867783443177</v>
+        <v>0.8743123938892642</v>
       </c>
       <c r="E63">
-        <v>4.235827657889804</v>
+        <v>3.600729883427586</v>
       </c>
       <c r="F63">
-        <v>16.69979348298027</v>
+        <v>6.318452074736684</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.259783929872795</v>
+        <v>4.851612453212781</v>
       </c>
       <c r="C64">
-        <v>10.32882513051285</v>
+        <v>1.718044923892773</v>
       </c>
       <c r="D64">
-        <v>5.372409247054822</v>
+        <v>0.8620853480811939</v>
       </c>
       <c r="E64">
-        <v>4.348582336223259</v>
+        <v>3.616043809682138</v>
       </c>
       <c r="F64">
-        <v>17.16280320476492</v>
+        <v>6.362030251376665</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.427220330506316</v>
+        <v>4.858513518657186</v>
       </c>
       <c r="C65">
-        <v>10.56332195968274</v>
+        <v>1.712743301103768</v>
       </c>
       <c r="D65">
-        <v>5.440131569130314</v>
+        <v>0.8490138806861949</v>
       </c>
       <c r="E65">
-        <v>4.454209289140681</v>
+        <v>3.630050671230532</v>
       </c>
       <c r="F65">
-        <v>17.55902201520786</v>
+        <v>6.402696248399127</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.57631048314159</v>
+        <v>4.860072994103087</v>
       </c>
       <c r="C66">
-        <v>10.77136259124276</v>
+        <v>1.705957056269011</v>
       </c>
       <c r="D66">
-        <v>5.491750320670343</v>
+        <v>0.8350727389156825</v>
       </c>
       <c r="E66">
-        <v>4.552736531008371</v>
+        <v>3.642771621881365</v>
       </c>
       <c r="F66">
-        <v>17.89425708093811</v>
+        <v>6.440458834150948</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.70844750127132</v>
+        <v>4.856409422735078</v>
       </c>
       <c r="C67">
-        <v>10.95458727431705</v>
+        <v>1.697694122938772</v>
       </c>
       <c r="D67">
-        <v>5.529093479529632</v>
+        <v>0.8202407264618859</v>
       </c>
       <c r="E67">
-        <v>4.644208935363296</v>
+        <v>3.654234939734503</v>
       </c>
       <c r="F67">
-        <v>18.17475311611408</v>
+        <v>6.475356275574138</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7.825020978471253</v>
+        <v>4.847732092635812</v>
       </c>
       <c r="C68">
-        <v>11.11471195693867</v>
+        <v>1.687978324490908</v>
       </c>
       <c r="D68">
-        <v>5.553947720311955</v>
+        <v>0.8045011960226628</v>
       </c>
       <c r="E68">
-        <v>4.72869312061716</v>
+        <v>3.664475325168645</v>
       </c>
       <c r="F68">
-        <v>18.4068162571725</v>
+        <v>6.507454822453787</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.927387503321906</v>
+        <v>4.834324344014159</v>
       </c>
       <c r="C69">
-        <v>11.25349492701789</v>
+        <v>1.676847546773243</v>
       </c>
       <c r="D69">
-        <v>5.568006021551725</v>
+        <v>0.787842501362826</v>
       </c>
       <c r="E69">
-        <v>4.806282793479816</v>
+        <v>3.673533017952185</v>
       </c>
       <c r="F69">
-        <v>18.59652858474723</v>
+        <v>6.536845713396604</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.016849868165636</v>
+        <v>4.816524257495261</v>
       </c>
       <c r="C70">
-        <v>11.37270112528602</v>
+        <v>1.664351626215461</v>
       </c>
       <c r="D70">
-        <v>5.572830134686975</v>
+        <v>0.7702584011318804</v>
       </c>
       <c r="E70">
-        <v>4.877104169608364</v>
+        <v>3.681452781933679</v>
       </c>
       <c r="F70">
-        <v>18.7495561692014</v>
+        <v>6.563640985917896</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8.094640867039146</v>
+        <v>4.794704678196667</v>
       </c>
       <c r="C71">
-        <v>11.47407049662078</v>
+        <v>1.650550099883358</v>
       </c>
       <c r="D71">
-        <v>5.569827960681</v>
+        <v>0.7517484124161083</v>
       </c>
       <c r="E71">
-        <v>4.941320878561523</v>
+        <v>3.688282829553534</v>
       </c>
       <c r="F71">
-        <v>18.87103956597082</v>
+        <v>6.587968687305846</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8.161912977424972</v>
+        <v>4.76925465929651</v>
       </c>
       <c r="C72">
-        <v>11.55928990124307</v>
+        <v>1.63551000204318</v>
       </c>
       <c r="D72">
-        <v>5.560244169728445</v>
+        <v>0.732318117233008</v>
       </c>
       <c r="E72">
-        <v>4.999137702932602</v>
+        <v>3.694073757721759</v>
       </c>
       <c r="F72">
-        <v>18.9655487569041</v>
+        <v>6.609967897217907</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.21973303482558</v>
+        <v>4.7405637124206</v>
       </c>
       <c r="C73">
-        <v>11.62996876882399</v>
+        <v>1.619303782074422</v>
       </c>
       <c r="D73">
-        <v>5.545161316970582</v>
+        <v>0.7119794263581289</v>
       </c>
       <c r="E73">
-        <v>5.050802318925654</v>
+        <v>3.698877545104437</v>
       </c>
       <c r="F73">
-        <v>19.0370838240055</v>
+        <v>6.629784039350832</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8.269080277595688</v>
+        <v>4.709009435454211</v>
       </c>
       <c r="C74">
-        <v>11.68762147932514</v>
+        <v>1.602007385489215</v>
       </c>
       <c r="D74">
-        <v>5.525508513198214</v>
+        <v>0.6907508106809871</v>
       </c>
       <c r="E74">
-        <v>5.0966043733562</v>
+        <v>3.702746655645543</v>
       </c>
       <c r="F74">
-        <v>19.08910496772357</v>
+        <v>6.647564753046725</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>8.310847211371673</v>
+        <v>4.67494865660209</v>
       </c>
       <c r="C75">
-        <v>11.73365493163261</v>
+        <v>1.583698548007939</v>
       </c>
       <c r="D75">
-        <v>5.502074609592707</v>
+        <v>0.6686574987245198</v>
       </c>
       <c r="E75">
-        <v>5.136871365618324</v>
+        <v>3.705733273100245</v>
       </c>
       <c r="F75">
-        <v>19.12457906473707</v>
+        <v>6.663456482814688</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8.345842568115893</v>
+        <v>4.638711744455434</v>
       </c>
       <c r="C76">
-        <v>11.76936173039703</v>
+        <v>1.56445535594754</v>
       </c>
       <c r="D76">
-        <v>5.475523724359049</v>
+        <v>0.6457316585733568</v>
       </c>
       <c r="E76">
-        <v>5.171961688934541</v>
+        <v>3.707888669868169</v>
       </c>
       <c r="F76">
-        <v>19.14603355725499</v>
+        <v>6.677601805282044</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8.374795681317009</v>
+        <v>4.600599579289313</v>
       </c>
       <c r="C77">
-        <v>11.79591801264169</v>
+        <v>1.544355059661872</v>
       </c>
       <c r="D77">
-        <v>5.446411332673955</v>
+        <v>0.6220125759727566</v>
       </c>
       <c r="E77">
-        <v>5.202255136021577</v>
+        <v>3.709262706239198</v>
       </c>
       <c r="F77">
-        <v>19.15561158741751</v>
+        <v>6.690137487829345</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.398361651851204</v>
+        <v>4.560882582719698</v>
       </c>
       <c r="C78">
-        <v>11.81438509327029</v>
+        <v>1.523473112361851</v>
       </c>
       <c r="D78">
-        <v>5.415199801274669</v>
+        <v>0.5975468415642037</v>
       </c>
       <c r="E78">
-        <v>5.228142283588677</v>
+        <v>3.709903458510498</v>
       </c>
       <c r="F78">
-        <v>19.15512482825788</v>
+        <v>6.701193158352521</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8.417127042183605</v>
+        <v>4.519801254774158</v>
       </c>
       <c r="C79">
-        <v>11.82571399833879</v>
+        <v>1.501882452292362</v>
       </c>
       <c r="D79">
-        <v>5.382272768402305</v>
+        <v>0.5723885609844643</v>
       </c>
       <c r="E79">
-        <v>5.25001378135465</v>
+        <v>3.709856956044819</v>
       </c>
       <c r="F79">
-        <v>19.14610192026521</v>
+        <v>6.710890510522542</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8.431615694707789</v>
+        <v>4.477567693866524</v>
       </c>
       <c r="C80">
-        <v>11.83075183247936</v>
+        <v>1.479652978695437</v>
       </c>
       <c r="D80">
-        <v>5.34794787679135</v>
+        <v>0.5465996030745803</v>
       </c>
       <c r="E80">
-        <v>5.268250772698117</v>
+        <v>3.709167009791421</v>
       </c>
       <c r="F80">
-        <v>19.12983127646006</v>
+        <v>6.719342925150685</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8.442294489024912</v>
+        <v>4.434367735993737</v>
       </c>
       <c r="C81">
-        <v>11.83024967599297</v>
+        <v>1.456851192471278</v>
       </c>
       <c r="D81">
-        <v>5.312487747030658</v>
+        <v>0.5202498996279746</v>
       </c>
       <c r="E81">
-        <v>5.283217155541187</v>
+        <v>3.70787511594826</v>
       </c>
       <c r="F81">
-        <v>19.10739843432126</v>
+        <v>6.726655398703786</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.449578907599591</v>
+        <v>4.390363367111563</v>
       </c>
       <c r="C82">
-        <v>11.82487104711204</v>
+        <v>1.433539987363067</v>
       </c>
       <c r="D82">
-        <v>5.276109430014315</v>
+        <v>0.4934178118688448</v>
       </c>
       <c r="E82">
-        <v>5.295254065767727</v>
+        <v>3.706020430712777</v>
       </c>
       <c r="F82">
-        <v>19.07971848055675</v>
+        <v>6.732924668013557</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8.453838283497118</v>
+        <v>4.345695233454499</v>
       </c>
       <c r="C83">
-        <v>11.81520029989402</v>
+        <v>1.409778558185013</v>
       </c>
       <c r="D83">
-        <v>5.23899239901702</v>
+        <v>0.4661905732675433</v>
       </c>
       <c r="E83">
-        <v>5.304676402952678</v>
+        <v>3.703639778894645</v>
       </c>
       <c r="F83">
-        <v>19.04756339395667</v>
+        <v>6.738239525597502</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8.455400661133101</v>
+        <v>4.300485149779217</v>
       </c>
       <c r="C84">
-        <v>11.80175091760963</v>
+        <v>1.385622398660942</v>
       </c>
       <c r="D84">
-        <v>5.201285185302684</v>
+        <v>0.4386648102034335</v>
       </c>
       <c r="E84">
-        <v>5.311771342365115</v>
+        <v>3.700767696339142</v>
       </c>
       <c r="F84">
-        <v>19.01158515376099</v>
+        <v>6.742681263239809</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8.454557080048856</v>
+        <v>4.254838437965674</v>
       </c>
       <c r="C85">
-        <v>11.784758796077</v>
+        <v>1.361123370688836</v>
       </c>
       <c r="D85">
-        <v>5.163110531465905</v>
+        <v>0.4109471359816073</v>
       </c>
       <c r="E85">
-        <v>5.316798132688579</v>
+        <v>3.697436509437139</v>
       </c>
       <c r="F85">
-        <v>18.97233430125807</v>
+        <v>6.746324147064636</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8.433159467957543</v>
+        <v>4.208846045598819</v>
       </c>
       <c r="C86">
-        <v>11.7411564483325</v>
+        <v>1.336329828677905</v>
       </c>
       <c r="D86">
-        <v>5.121690632365872</v>
+        <v>0.3831547991042943</v>
       </c>
       <c r="E86">
-        <v>5.305442785166611</v>
+        <v>3.693676431907597</v>
       </c>
       <c r="F86">
-        <v>18.91172141293485</v>
+        <v>6.749235898171642</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8.411595139567879</v>
+        <v>4.162586465578633</v>
       </c>
       <c r="C87">
-        <v>11.69723575988207</v>
+        <v>1.311286782201643</v>
       </c>
       <c r="D87">
-        <v>5.080403735398596</v>
+        <v>0.3554163424410597</v>
       </c>
       <c r="E87">
-        <v>5.29393665267201</v>
+        <v>3.68951567246679</v>
       </c>
       <c r="F87">
-        <v>18.85094921352166</v>
+        <v>6.751478186416424</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.38988448738556</v>
+        <v>4.116127456248656</v>
       </c>
       <c r="C88">
-        <v>11.65315574780366</v>
+        <v>1.286036075589803</v>
       </c>
       <c r="D88">
-        <v>5.03925746071979</v>
+        <v>0.3278721935371188</v>
       </c>
       <c r="E88">
-        <v>5.2822980435239</v>
+        <v>3.684980544099346</v>
       </c>
       <c r="F88">
-        <v>18.79005173390356</v>
+        <v>6.75310713361231</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8.368045728486683</v>
+        <v>4.069527556093472</v>
       </c>
       <c r="C89">
-        <v>11.60894320053562</v>
+        <v>1.260616580887818</v>
       </c>
       <c r="D89">
-        <v>4.998258167270789</v>
+        <v>0.3006750664624784</v>
       </c>
       <c r="E89">
-        <v>5.270543230348546</v>
+        <v>3.680095571826897</v>
       </c>
       <c r="F89">
-        <v>18.72905781978655</v>
+        <v>6.754173795388419</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8.34609495816081</v>
+        <v>4.022837388039835</v>
       </c>
       <c r="C90">
-        <v>11.56462157620378</v>
+        <v>1.235064412290629</v>
       </c>
       <c r="D90">
-        <v>4.957411229727383</v>
+        <v>0.2739899705507645</v>
       </c>
       <c r="E90">
-        <v>5.258686567409638</v>
+        <v>3.674883601170985</v>
       </c>
       <c r="F90">
-        <v>18.66799204233416</v>
+        <v>6.75472460944242</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.324046477755976</v>
+        <v>3.976100792722831</v>
       </c>
       <c r="C91">
-        <v>11.5202114593541</v>
+        <v>1.209413136798865</v>
       </c>
       <c r="D91">
-        <v>4.916721222844773</v>
+        <v>0.247993621171007</v>
       </c>
       <c r="E91">
-        <v>5.246740725744699</v>
+        <v>3.669365910667944</v>
       </c>
       <c r="F91">
-        <v>18.60687559371778</v>
+        <v>6.754801811335586</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8.301913001737701</v>
+        <v>3.929355807094969</v>
       </c>
       <c r="C92">
-        <v>11.47573104249367</v>
+        <v>1.183693974076766</v>
       </c>
       <c r="D92">
-        <v>4.876192060177764</v>
+        <v>0.2228725770443029</v>
       </c>
       <c r="E92">
-        <v>5.234716878821832</v>
+        <v>3.663562319487642</v>
       </c>
       <c r="F92">
-        <v>18.54572654167426</v>
+        <v>6.75444382171559</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8.279705936719411</v>
+        <v>3.882635505484175</v>
       </c>
       <c r="C93">
-        <v>11.43119631156558</v>
+        <v>1.157935991227571</v>
       </c>
       <c r="D93">
-        <v>4.835827107341409</v>
+        <v>0.1988200904575857</v>
       </c>
       <c r="E93">
-        <v>5.222624876211849</v>
+        <v>3.657491288294335</v>
       </c>
       <c r="F93">
-        <v>18.48456038293759</v>
+        <v>6.753685604129421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.257435391305735</v>
+        <v>3.835968717984261</v>
       </c>
       <c r="C94">
-        <v>11.38662134024113</v>
+        <v>1.132166288360173</v>
       </c>
       <c r="D94">
-        <v>4.795629276006146</v>
+        <v>0.1760308804583976</v>
       </c>
       <c r="E94">
-        <v>5.210473403630615</v>
+        <v>3.651170016149803</v>
       </c>
       <c r="F94">
-        <v>18.42339052629105</v>
+        <v>6.752558992668203</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.235110392606304</v>
+        <v>3.789380644145314</v>
       </c>
       <c r="C95">
-        <v>11.34201853343007</v>
+        <v>1.106410174702384</v>
       </c>
       <c r="D95">
-        <v>4.755601105011202</v>
+        <v>0.1546932933242911</v>
       </c>
       <c r="E95">
-        <v>5.198270131041642</v>
+        <v>3.6446145302949</v>
       </c>
       <c r="F95">
-        <v>18.36222857774288</v>
+        <v>6.751092988012984</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.212738967265086</v>
+        <v>3.742893379532267</v>
       </c>
       <c r="C96">
-        <v>11.29739884536659</v>
+        <v>1.080691335758854</v>
       </c>
       <c r="D96">
-        <v>4.715744821745019</v>
+        <v>0.1349789003821863</v>
       </c>
       <c r="E96">
-        <v>5.186021833456234</v>
+        <v>3.637839770367445</v>
       </c>
       <c r="F96">
-        <v>18.30108460778266</v>
+        <v>6.749314026486616</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8.190328275785328</v>
+        <v>3.696526360564449</v>
       </c>
       <c r="C97">
-        <v>11.25277201111457</v>
+        <v>1.055031987236485</v>
       </c>
       <c r="D97">
-        <v>4.676062365346239</v>
+        <v>0.1170298829624759</v>
       </c>
       <c r="E97">
-        <v>5.173734525243659</v>
+        <v>3.630859668504038</v>
       </c>
       <c r="F97">
-        <v>18.23996736857168</v>
+        <v>6.747246224059267</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8.167884753945151</v>
+        <v>3.650296746687085</v>
       </c>
       <c r="C98">
-        <v>11.20814669180057</v>
+        <v>1.029453016592612</v>
       </c>
       <c r="D98">
-        <v>4.636555450408616</v>
+        <v>0.1009455798284351</v>
       </c>
       <c r="E98">
-        <v>5.1614135157129</v>
+        <v>3.623687223382957</v>
       </c>
       <c r="F98">
-        <v>18.17888437541255</v>
+        <v>6.744911595892391</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.145414174975713</v>
+        <v>3.604219745178205</v>
       </c>
       <c r="C99">
-        <v>11.16353059377207</v>
+        <v>1.003974113083155</v>
       </c>
       <c r="D99">
-        <v>4.597225609348812</v>
+        <v>0.08677049752820763</v>
       </c>
       <c r="E99">
-        <v>5.149063506698409</v>
+        <v>3.61633456888184</v>
       </c>
       <c r="F99">
-        <v>18.11784221644465</v>
+        <v>6.742330251944162</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>8.12292172451097</v>
+        <v>3.558308888078765</v>
       </c>
       <c r="C100">
-        <v>11.11893058094755</v>
+        <v>0.9786138869575229</v>
       </c>
       <c r="D100">
-        <v>4.558074217308163</v>
+        <v>0.07448674583122759</v>
       </c>
       <c r="E100">
-        <v>5.136688670271766</v>
+        <v>3.608813037424265</v>
       </c>
       <c r="F100">
-        <v>18.05684667142632</v>
+        <v>6.739520582409221</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8.100412048693098</v>
+        <v>3.512576268322497</v>
       </c>
       <c r="C101">
-        <v>11.07435277898306</v>
+        <v>0.9533899781616286</v>
       </c>
       <c r="D101">
-        <v>4.519102512816532</v>
+        <v>0.06401371923095903</v>
       </c>
       <c r="E101">
-        <v>5.124292721410447</v>
+        <v>3.601133219642301</v>
       </c>
       <c r="F101">
-        <v>17.99590281369064</v>
+        <v>6.736499435286936</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8.077889327444497</v>
+        <v>3.46703274063948</v>
       </c>
       <c r="C102">
-        <v>11.02980266754666</v>
+        <v>0.9283191549415534</v>
       </c>
       <c r="D102">
-        <v>4.480311625043066</v>
+        <v>0.0552153828922289</v>
       </c>
       <c r="E102">
-        <v>5.111878975353848</v>
+        <v>3.593305017783736</v>
       </c>
       <c r="F102">
-        <v>17.93501513714737</v>
+        <v>6.733282233144831</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.055357322318576</v>
+        <v>3.421688088775797</v>
       </c>
       <c r="C103">
-        <v>10.98528515988</v>
+        <v>0.9034174024144233</v>
       </c>
       <c r="D103">
-        <v>4.441702571640382</v>
+        <v>0.04791485973596213</v>
       </c>
       <c r="E103">
-        <v>5.099450392044094</v>
+        <v>3.585337696378021</v>
       </c>
       <c r="F103">
-        <v>17.87418757934336</v>
+        <v>6.729883121252087</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8.032819421769</v>
+        <v>3.376551180626013</v>
       </c>
       <c r="C104">
-        <v>10.94080467091175</v>
+        <v>0.878700003830884</v>
       </c>
       <c r="D104">
-        <v>4.403276299731024</v>
+        <v>0.04191253589779851</v>
       </c>
       <c r="E104">
-        <v>5.087009615718806</v>
+        <v>3.57723992875828</v>
       </c>
       <c r="F104">
-        <v>17.81342359337664</v>
+        <v>6.726315088129308</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.01027868503154</v>
+        <v>3.331630104461395</v>
       </c>
       <c r="C105">
-        <v>10.89636517620034</v>
+        <v>0.8541816100971579</v>
       </c>
       <c r="D105">
-        <v>4.365033653308999</v>
+        <v>0.03700417430838968</v>
       </c>
       <c r="E105">
-        <v>5.074559011864756</v>
+        <v>3.569019839867439</v>
       </c>
       <c r="F105">
-        <v>17.75272622988639</v>
+        <v>6.722590047853065</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.987737868858042</v>
+        <v>3.28693225755948</v>
       </c>
       <c r="C106">
-        <v>10.85197026311158</v>
+        <v>0.8298763038486834</v>
       </c>
       <c r="D106">
-        <v>4.326975434742886</v>
+        <v>0.03299574446127653</v>
       </c>
       <c r="E106">
-        <v>5.062100700540006</v>
+        <v>3.560685045694567</v>
       </c>
       <c r="F106">
-        <v>17.69209818482255</v>
+        <v>6.718718956167404</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.965199470051686</v>
+        <v>3.242464442311561</v>
       </c>
       <c r="C107">
-        <v>10.80762317296561</v>
+        <v>0.8057976554415663</v>
       </c>
       <c r="D107">
-        <v>4.289102379301902</v>
+        <v>0.02971308227658385</v>
       </c>
       <c r="E107">
-        <v>5.049636585306759</v>
+        <v>3.552242686584445</v>
       </c>
       <c r="F107">
-        <v>17.63154187146075</v>
+        <v>6.714711901881437</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.942665751309054</v>
+        <v>3.198232951724757</v>
       </c>
       <c r="C108">
-        <v>10.7633268444108</v>
+        <v>0.7819587718668274</v>
       </c>
       <c r="D108">
-        <v>4.251415185383502</v>
+        <v>0.02700708690503773</v>
       </c>
       <c r="E108">
-        <v>5.037168378079635</v>
+        <v>3.543699469621698</v>
       </c>
       <c r="F108">
-        <v>17.57105940718546</v>
+        <v>6.710578175007151</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.920138763479355</v>
+        <v>3.154243620254247</v>
       </c>
       <c r="C109">
-        <v>10.71908394602799</v>
+        <v>0.7583723390260462</v>
       </c>
       <c r="D109">
-        <v>4.213914506078672</v>
+        <v>0.02475451515278071</v>
       </c>
       <c r="E109">
-        <v>5.024697620652738</v>
+        <v>3.535061684774835</v>
       </c>
       <c r="F109">
-        <v>17.51065274430565</v>
+        <v>6.706326338985181</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.89762036928393</v>
+        <v>3.110501896449025</v>
       </c>
       <c r="C110">
-        <v>10.6748969106459</v>
+        <v>0.7350506576764567</v>
       </c>
       <c r="D110">
-        <v>4.176600967361298</v>
+        <v>0.02285656878707799</v>
       </c>
       <c r="E110">
-        <v>5.012225703622143</v>
+        <v>3.526335258988729</v>
       </c>
       <c r="F110">
-        <v>17.45032355964574</v>
+        <v>6.701964302931352</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.875112258439281</v>
+        <v>3.067012890518721</v>
       </c>
       <c r="C111">
-        <v>10.63076795409425</v>
+        <v>0.7120056735606408</v>
       </c>
       <c r="D111">
-        <v>4.139475150991447</v>
+        <v>0.02123551268394471</v>
       </c>
       <c r="E111">
-        <v>4.999753883671698</v>
+        <v>3.517525750207928</v>
       </c>
       <c r="F111">
-        <v>17.39007343436077</v>
+        <v>6.697499367201299</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.852615969822332</v>
+        <v>3.02378142243822</v>
       </c>
       <c r="C112">
-        <v>10.58669910794011</v>
+        <v>0.6892490022671499</v>
       </c>
       <c r="D112">
-        <v>4.102537615465543</v>
+        <v>0.01983135057813367</v>
       </c>
       <c r="E112">
-        <v>4.987283301246446</v>
+        <v>3.508638403094857</v>
       </c>
       <c r="F112">
-        <v>17.32990371790779</v>
+        <v>6.692938278745494</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.830132906905272</v>
+        <v>2.980812051951113</v>
       </c>
       <c r="C113">
-        <v>10.54269220832012</v>
+        <v>0.6667919475962348</v>
       </c>
       <c r="D113">
-        <v>4.065788884923275</v>
+        <v>0.01859828409833642</v>
       </c>
       <c r="E113">
-        <v>4.974814983162108</v>
+        <v>3.499678143287675</v>
       </c>
       <c r="F113">
-        <v>17.26981567756209</v>
+        <v>6.688287282043233</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.807664349954847</v>
+        <v>2.938109110221327</v>
       </c>
       <c r="C114">
-        <v>10.49874896610215</v>
+        <v>0.6446455158911831</v>
       </c>
       <c r="D114">
-        <v>4.029229462150226</v>
+        <v>0.01750152063732656</v>
       </c>
       <c r="E114">
-        <v>4.96234986119896</v>
+        <v>3.490649617042887</v>
       </c>
       <c r="F114">
-        <v>17.20981041639253</v>
+        <v>6.683552160244464</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.785211469114239</v>
+        <v>2.895676728163096</v>
       </c>
       <c r="C115">
-        <v>10.45487093679718</v>
+        <v>0.6228204250595586</v>
       </c>
       <c r="D115">
-        <v>3.992859825984745</v>
+        <v>0.0165148367226236</v>
       </c>
       <c r="E115">
-        <v>4.949888784960048</v>
+        <v>3.481557201700641</v>
       </c>
       <c r="F115">
-        <v>17.14988895481903</v>
+        <v>6.678738271901249</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.76277533774824</v>
+        <v>2.853518861124456</v>
       </c>
       <c r="C116">
-        <v>10.41105957402012</v>
+        <v>0.6013271088561818</v>
       </c>
       <c r="D116">
-        <v>3.956680437213495</v>
+        <v>0.01561847592067553</v>
       </c>
       <c r="E116">
-        <v>4.93743251915342</v>
+        <v>3.472405023666354</v>
       </c>
       <c r="F116">
-        <v>17.09005220336363</v>
+        <v>6.673850587621344</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.740356931024559</v>
+        <v>2.81163930694369</v>
       </c>
       <c r="C117">
-        <v>10.36731621367879</v>
+        <v>0.5801757166076559</v>
       </c>
       <c r="D117">
-        <v>3.920691737327094</v>
+        <v>0.01479743328735992</v>
       </c>
       <c r="E117">
-        <v>4.924981770585187</v>
+        <v>3.463196982905564</v>
       </c>
       <c r="F117">
-        <v>17.03030100197242</v>
+        <v>6.668893725548536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.717957156328803</v>
+        <v>2.770041724634024</v>
       </c>
       <c r="C118">
-        <v>10.32364210318223</v>
+        <v>0.5593761084528051</v>
       </c>
       <c r="D118">
-        <v>3.884894149086787</v>
+        <v>0.01404027258380058</v>
       </c>
       <c r="E118">
-        <v>4.912537181590852</v>
+        <v>3.453936756581461</v>
       </c>
       <c r="F118">
-        <v>16.97063610677912</v>
+        <v>6.66387197347263</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.695576823924552</v>
+        <v>2.728729648717893</v>
       </c>
       <c r="C119">
-        <v>10.28003839071665</v>
+        <v>0.5389378467330743</v>
       </c>
       <c r="D119">
-        <v>3.849288088612677</v>
+        <v>0.01333819527815551</v>
       </c>
       <c r="E119">
-        <v>4.900099342208346</v>
+        <v>3.444627825891169</v>
       </c>
       <c r="F119">
-        <v>16.91105822283515</v>
+        <v>6.658789318749296</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.673216700489971</v>
+        <v>2.687706503318752</v>
       </c>
       <c r="C120">
-        <v>10.2365061504671</v>
+        <v>0.5188701829773846</v>
       </c>
       <c r="D120">
-        <v>3.813873945773941</v>
+        <v>0.01268430155188626</v>
       </c>
       <c r="E120">
-        <v>4.887668788744937</v>
+        <v>3.435273476534915</v>
       </c>
       <c r="F120">
-        <v>16.8515679828146</v>
+        <v>6.653649474269061</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.650877474787663</v>
+        <v>2.646975610323882</v>
       </c>
       <c r="C121">
-        <v>10.19304637838049</v>
+        <v>0.4991820409374158</v>
       </c>
       <c r="D121">
-        <v>3.778652100202492</v>
+        <v>0.01207312611372503</v>
       </c>
       <c r="E121">
-        <v>4.875246014852282</v>
+        <v>3.425876821530089</v>
       </c>
       <c r="F121">
-        <v>16.79216598215597</v>
+        <v>6.64845589593692</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.628559793919988</v>
+        <v>2.606540199661564</v>
       </c>
       <c r="C122">
-        <v>10.1496600070349</v>
+        <v>0.4798819963854188</v>
       </c>
       <c r="D122">
-        <v>3.743622933768841</v>
+        <v>0.01150028566557943</v>
       </c>
       <c r="E122">
-        <v>4.862831470175459</v>
+        <v>3.41644080386661</v>
       </c>
       <c r="F122">
-        <v>16.73285275642992</v>
+        <v>6.643211800238906</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.606264254931736</v>
+        <v>2.566403414142567</v>
       </c>
       <c r="C123">
-        <v>10.10634790968102</v>
+        <v>0.4609782533648397</v>
       </c>
       <c r="D123">
-        <v>3.708786787693667</v>
+        <v>0.01096217672659451</v>
       </c>
       <c r="E123">
-        <v>4.850425568474139</v>
+        <v>3.406968211987807</v>
       </c>
       <c r="F123">
-        <v>16.673628809644</v>
+        <v>6.637920201067152</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.583991406206175</v>
+        <v>2.526568325413898</v>
       </c>
       <c r="C124">
-        <v>10.0631109012105</v>
+        <v>0.4424786173415773</v>
       </c>
       <c r="D124">
-        <v>3.674144011297025</v>
+        <v>0.01045575081435674</v>
       </c>
       <c r="E124">
-        <v>4.838028689762758</v>
+        <v>3.397461688155569</v>
       </c>
       <c r="F124">
-        <v>16.61449460098013</v>
+        <v>6.632583888611348</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.561741762961306</v>
+        <v>2.487037922676226</v>
       </c>
       <c r="C125">
-        <v>10.01994975868171</v>
+        <v>0.4243904655745489</v>
       </c>
       <c r="D125">
-        <v>3.639694943940873</v>
+        <v>0.00997841064451787</v>
       </c>
       <c r="E125">
-        <v>4.82564118219095</v>
+        <v>3.387923735288939</v>
       </c>
       <c r="F125">
-        <v>16.55545056125384</v>
+        <v>6.627205502978958</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.539515794357679</v>
+        <v>2.447815142898118</v>
       </c>
       <c r="C126">
-        <v>9.976865215933767</v>
+        <v>0.4067207150000799</v>
       </c>
       <c r="D126">
-        <v>3.605439892876986</v>
+        <v>0.009527933339979535</v>
       </c>
       <c r="E126">
-        <v>4.813263371594535</v>
+        <v>3.378356730561565</v>
       </c>
       <c r="F126">
-        <v>16.49649708849554</v>
+        <v>6.621787485535236</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.517313941131437</v>
+        <v>2.408902845994186</v>
       </c>
       <c r="C127">
-        <v>9.933857938671361</v>
+        <v>0.3894757884391438</v>
       </c>
       <c r="D127">
-        <v>3.571379171904378</v>
+        <v>0.009102363163434679</v>
       </c>
       <c r="E127">
-        <v>4.800895556356094</v>
+        <v>3.368762926632778</v>
       </c>
       <c r="F127">
-        <v>16.43763455682599</v>
+        <v>6.616332136549789</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.495136608577694</v>
+        <v>2.370303840386956</v>
       </c>
       <c r="C128">
-        <v>9.890928603124097</v>
+        <v>0.372661577804562</v>
       </c>
       <c r="D128">
-        <v>3.537513077868984</v>
+        <v>0.008699954888279401</v>
       </c>
       <c r="E128">
-        <v>4.788538005448468</v>
+        <v>3.359144465378173</v>
       </c>
       <c r="F128">
-        <v>16.37886331453094</v>
+        <v>6.61084160823175</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.472984175262182</v>
+        <v>2.332020871542448</v>
       </c>
       <c r="C129">
-        <v>9.848077841305487</v>
+        <v>0.3562834096723206</v>
       </c>
       <c r="D129">
-        <v>3.503841893162872</v>
+        <v>0.008319126764175587</v>
       </c>
       <c r="E129">
-        <v>4.77619098622222</v>
+        <v>3.349503378861182</v>
       </c>
       <c r="F129">
-        <v>16.32018369097341</v>
+        <v>6.605317905051292</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.450856993770459</v>
+        <v>2.294056625749896</v>
       </c>
       <c r="C130">
-        <v>9.805306206604786</v>
+        <v>0.3403460049180507</v>
       </c>
       <c r="D130">
-        <v>3.470365892267828</v>
+        <v>0.007958454709011553</v>
       </c>
       <c r="E130">
-        <v>4.763854733646406</v>
+        <v>3.339841600254526</v>
       </c>
       <c r="F130">
-        <v>16.26159599387734</v>
+        <v>6.599762921577329</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.428755391964336</v>
+        <v>2.256413736784328</v>
       </c>
       <c r="C131">
-        <v>9.76261429357047</v>
+        <v>0.3248534494074289</v>
       </c>
       <c r="D131">
-        <v>3.437085338136772</v>
+        <v>0.007616644689668313</v>
       </c>
       <c r="E131">
-        <v>4.751529460374047</v>
+        <v>3.330160966401116</v>
       </c>
       <c r="F131">
-        <v>16.20310051586578</v>
+        <v>6.594178418262978</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.406679675670707</v>
+        <v>2.219094777859013</v>
       </c>
       <c r="C132">
-        <v>9.720002649846645</v>
+        <v>0.3098091482780088</v>
       </c>
       <c r="D132">
-        <v>3.40400048381029</v>
+        <v>0.007292523701490084</v>
       </c>
       <c r="E132">
-        <v>4.739215385452535</v>
+        <v>3.320463224936078</v>
       </c>
       <c r="F132">
-        <v>16.1446975317646</v>
+        <v>6.588566060753489</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.384630136428933</v>
+        <v>2.182102271296428</v>
       </c>
       <c r="C133">
-        <v>9.677471758799546</v>
+        <v>0.2952157994667321</v>
       </c>
       <c r="D133">
-        <v>3.371111571336647</v>
+        <v>0.006984992363424029</v>
       </c>
       <c r="E133">
-        <v>4.726912694098117</v>
+        <v>3.310750039502214</v>
       </c>
       <c r="F133">
-        <v>16.08638730376404</v>
+        <v>6.582927403152731</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.36260704714814</v>
+        <v>2.14543868203853</v>
       </c>
       <c r="C134">
-        <v>9.635022134325014</v>
+        <v>0.2810753555296187</v>
       </c>
       <c r="D134">
-        <v>3.338418832097967</v>
+        <v>0.0066930357552681</v>
       </c>
       <c r="E134">
-        <v>4.714621560405953</v>
+        <v>3.301022992842322</v>
       </c>
       <c r="F134">
-        <v>16.02817008005966</v>
+        <v>6.577263916040804</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.340610647318416</v>
+        <v>2.109106422333125</v>
       </c>
       <c r="C135">
-        <v>9.592654252827751</v>
+        <v>0.2673889963939272</v>
       </c>
       <c r="D135">
-        <v>3.305922487300915</v>
+        <v>0.0064157206792626</v>
       </c>
       <c r="E135">
-        <v>4.702342157697857</v>
+        <v>3.291283593818549</v>
       </c>
       <c r="F135">
-        <v>15.97004609805784</v>
+        <v>6.571576973027013</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.318641188268078</v>
+        <v>2.073107846315676</v>
       </c>
       <c r="C136">
-        <v>9.550368554889316</v>
+        <v>0.2541571019674156</v>
       </c>
       <c r="D136">
-        <v>3.27362274892182</v>
+        <v>0.006152180902892615</v>
       </c>
       <c r="E136">
-        <v>4.690074635662117</v>
+        <v>3.281533276849984</v>
       </c>
       <c r="F136">
-        <v>15.91201558428528</v>
+        <v>6.565867877458091</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.296698906193132</v>
+        <v>2.037445255225892</v>
       </c>
       <c r="C137">
-        <v>9.50816548529448</v>
+        <v>0.2413792391895766</v>
       </c>
       <c r="D137">
-        <v>3.24151981561341</v>
+        <v>0.00590161579493993</v>
       </c>
       <c r="E137">
-        <v>4.677819138359889</v>
+        <v>3.271773414450406</v>
       </c>
       <c r="F137">
-        <v>15.85407875615761</v>
+        <v>6.560137848890495</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.274783990764686</v>
+        <v>2.002120888588511</v>
       </c>
       <c r="C138">
-        <v>9.4660454664554</v>
+        <v>0.2290541287142554</v>
       </c>
       <c r="D138">
-        <v>3.209613877124684</v>
+        <v>0.005663273875587594</v>
       </c>
       <c r="E138">
-        <v>4.665575802518535</v>
+        <v>3.262005312670164</v>
       </c>
       <c r="F138">
-        <v>15.79623582242005</v>
+        <v>6.554388041161746</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.252896653377353</v>
+        <v>1.967136931442983</v>
       </c>
       <c r="C139">
-        <v>9.424008903522154</v>
+        <v>0.2171796643119638</v>
       </c>
       <c r="D139">
-        <v>3.177905112955042</v>
+        <v>0.005436460064451547</v>
       </c>
       <c r="E139">
-        <v>4.653344752545761</v>
+        <v>3.25223021428618</v>
       </c>
       <c r="F139">
-        <v>15.7384869842076</v>
+        <v>6.548619541399059</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.231037094357077</v>
+        <v>1.932495504142092</v>
       </c>
       <c r="C140">
-        <v>9.382056193920286</v>
+        <v>0.2057528689132298</v>
       </c>
       <c r="D140">
-        <v>3.14639368923868</v>
+        <v>0.005220517657879855</v>
       </c>
       <c r="E140">
-        <v>4.641126107758764</v>
+        <v>3.242449317397545</v>
       </c>
       <c r="F140">
-        <v>15.68083243558613</v>
+        <v>6.542833372586302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.209205489057118</v>
+        <v>1.898198668553066</v>
       </c>
       <c r="C141">
-        <v>9.340187721880632</v>
+        <v>0.1947699413337544</v>
       </c>
       <c r="D141">
-        <v>3.115079763086621</v>
+        <v>0.005014843501304585</v>
       </c>
       <c r="E141">
-        <v>4.628919980539447</v>
+        <v>3.232663752710273</v>
       </c>
       <c r="F141">
-        <v>15.62327236426592</v>
+        <v>6.537030504314743</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.187401999084946</v>
+        <v>1.86424841988164</v>
       </c>
       <c r="C142">
-        <v>9.298403857821627</v>
+        <v>0.1842262238152355</v>
       </c>
       <c r="D142">
-        <v>3.083963479868316</v>
+        <v>0.004818845388773567</v>
       </c>
       <c r="E142">
-        <v>4.616726474085923</v>
+        <v>3.22287460610092</v>
       </c>
       <c r="F142">
-        <v>15.56580695218959</v>
+        <v>6.531211847539</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.165626796323398</v>
+        <v>1.830646689834759</v>
       </c>
       <c r="C143">
-        <v>9.25670496854195</v>
+        <v>0.1741162512348097</v>
       </c>
       <c r="D143">
-        <v>3.053044973609883</v>
+        <v>0.004632001685605061</v>
       </c>
       <c r="E143">
-        <v>4.604545689322798</v>
+        <v>3.213082922750073</v>
       </c>
       <c r="F143">
-        <v>15.50843637547715</v>
+        <v>6.525378267558923</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.143880036715319</v>
+        <v>1.797395340886761</v>
       </c>
       <c r="C144">
-        <v>9.215091409384433</v>
+        <v>0.1644337570010644</v>
       </c>
       <c r="D144">
-        <v>3.022324367074182</v>
+        <v>0.004453819457636415</v>
       </c>
       <c r="E144">
-        <v>4.59237772121694</v>
+        <v>3.203289683718823</v>
       </c>
       <c r="F144">
-        <v>15.45116080600584</v>
+        <v>6.519530578254626</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7.122161858307417</v>
+        <v>1.764496167303336</v>
       </c>
       <c r="C145">
-        <v>9.173563520785061</v>
+        <v>0.1551716998695859</v>
       </c>
       <c r="D145">
-        <v>2.991801771707228</v>
+        <v>0.004283850356217469</v>
       </c>
       <c r="E145">
-        <v>4.58022265555309</v>
+        <v>3.193495842939778</v>
       </c>
       <c r="F145">
-        <v>15.39398041223205</v>
+        <v>6.513669553772078</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7.100472405215022</v>
+        <v>1.731950890509026</v>
       </c>
       <c r="C146">
-        <v>9.132121645051997</v>
+        <v>0.1463223297332112</v>
       </c>
       <c r="D146">
-        <v>2.961477287761494</v>
+        <v>0.004121627816394653</v>
       </c>
       <c r="E146">
-        <v>4.568080578690369</v>
+        <v>3.183702308411763</v>
       </c>
       <c r="F146">
-        <v>15.33689535614142</v>
+        <v>6.507795922677051</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7.078811811423217</v>
+        <v>1.699761158946442</v>
       </c>
       <c r="C147">
-        <v>9.090766113206501</v>
+        <v>0.1378771796420218</v>
       </c>
       <c r="D147">
-        <v>2.931351003652258</v>
+        <v>0.003966742027973975</v>
       </c>
       <c r="E147">
-        <v>4.555951570940496</v>
+        <v>3.173909942387557</v>
       </c>
       <c r="F147">
-        <v>15.2799057985527</v>
+        <v>6.501910379003603</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7.057180202599501</v>
+        <v>1.667928544264074</v>
       </c>
       <c r="C148">
-        <v>9.049497243596468</v>
+        <v>0.1298271759022537</v>
       </c>
       <c r="D148">
-        <v>2.901422996242648</v>
+        <v>0.003818808653421108</v>
       </c>
       <c r="E148">
-        <v>4.543835705515631</v>
+        <v>3.16411957784212</v>
       </c>
       <c r="F148">
-        <v>15.22301189824456</v>
+        <v>6.49601357730065</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7.035577701644009</v>
+        <v>1.636454539975974</v>
       </c>
       <c r="C149">
-        <v>9.008315355741711</v>
+        <v>0.1221626346435696</v>
       </c>
       <c r="D149">
-        <v>2.871693330678744</v>
+        <v>0.003677462591363077</v>
       </c>
       <c r="E149">
-        <v>4.531733055726134</v>
+        <v>3.154332008896755</v>
       </c>
       <c r="F149">
-        <v>15.16621380677699</v>
+        <v>6.490106139785738</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7.014004426825891</v>
+        <v>1.605340558735213</v>
       </c>
       <c r="C150">
-        <v>8.967220760045766</v>
+        <v>0.1148733658825429</v>
       </c>
       <c r="D150">
-        <v>2.842162060375297</v>
+        <v>0.003542362386297735</v>
       </c>
       <c r="E150">
-        <v>4.519643689785736</v>
+        <v>3.144547994961101</v>
       </c>
       <c r="F150">
-        <v>15.10951167655019</v>
+        <v>6.484188656175935</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.992460490592484</v>
+        <v>1.574587929908087</v>
       </c>
       <c r="C151">
-        <v>8.9262137587168</v>
+        <v>0.1079487023918753</v>
       </c>
       <c r="D151">
-        <v>2.812829226418372</v>
+        <v>0.003413189802560307</v>
       </c>
       <c r="E151">
-        <v>4.507567671586745</v>
+        <v>3.134768267163985</v>
       </c>
       <c r="F151">
-        <v>15.05290565830863</v>
+        <v>6.478261685305307</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6.970946001071469</v>
+        <v>1.544197897611454</v>
       </c>
       <c r="C152">
-        <v>8.885294651789339</v>
+        <v>0.1013775801834873</v>
       </c>
       <c r="D152">
-        <v>2.783694857967681</v>
+        <v>0.003289633355793317</v>
       </c>
       <c r="E152">
-        <v>4.495505063531474</v>
+        <v>3.124993522418436</v>
       </c>
       <c r="F152">
-        <v>14.99639589676461</v>
+        <v>6.472325759038079</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6.949461065248003</v>
+        <v>1.514171617910789</v>
       </c>
       <c r="C153">
-        <v>8.84446373313331</v>
+        <v>0.09514860232043419</v>
       </c>
       <c r="D153">
-        <v>2.754758972065329</v>
+        <v>0.003171425117080857</v>
       </c>
       <c r="E153">
-        <v>4.483455924501307</v>
+        <v>3.115224430839329</v>
       </c>
       <c r="F153">
-        <v>14.9399825374455</v>
+        <v>6.466381380797285</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.928005785631464</v>
+        <v>1.484510156971055</v>
       </c>
       <c r="C154">
-        <v>8.803721291405322</v>
+        <v>0.08925009356879164</v>
       </c>
       <c r="D154">
-        <v>2.726021573044912</v>
+        <v>0.003058289016998131</v>
       </c>
       <c r="E154">
-        <v>4.471420310648035</v>
+        <v>3.105461636865212</v>
       </c>
       <c r="F154">
-        <v>14.88366572423826</v>
+        <v>6.460429030771673</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.906580256847707</v>
+        <v>1.455214488535832</v>
       </c>
       <c r="C155">
-        <v>8.763067611967266</v>
+        <v>0.08367018106444123</v>
       </c>
       <c r="D155">
-        <v>2.697482653016072</v>
+        <v>0.002949966082577658</v>
       </c>
       <c r="E155">
-        <v>4.45939827626875</v>
+        <v>3.095705753077565</v>
       </c>
       <c r="F155">
-        <v>14.82744559745116</v>
+        <v>6.454469163598682</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6.885184576722271</v>
+        <v>1.426285491455774</v>
       </c>
       <c r="C156">
-        <v>8.722502975706291</v>
+        <v>0.07839684659339921</v>
       </c>
       <c r="D156">
-        <v>2.669142191408095</v>
+        <v>0.002846216530909252</v>
       </c>
       <c r="E156">
-        <v>4.447389872936355</v>
+        <v>3.085957372800717</v>
       </c>
       <c r="F156">
-        <v>14.77132229726952</v>
+        <v>6.448502213553496</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6.863818838892231</v>
+        <v>1.397723947787116</v>
       </c>
       <c r="C157">
-        <v>8.682027659044303</v>
+        <v>0.07341799475235859</v>
       </c>
       <c r="D157">
-        <v>2.641000155004846</v>
+        <v>0.002746816957058169</v>
       </c>
       <c r="E157">
-        <v>4.435395150286354</v>
+        <v>3.076217063862246</v>
       </c>
       <c r="F157">
-        <v>14.71529596253939</v>
+        <v>6.442528592012759</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6.842483129869185</v>
+        <v>1.369530541624904</v>
       </c>
       <c r="C158">
-        <v>8.641641936305719</v>
+        <v>0.06872151106160142</v>
       </c>
       <c r="D158">
-        <v>2.613056497681656</v>
+        <v>0.002651559917768329</v>
       </c>
       <c r="E158">
-        <v>4.423414156564076</v>
+        <v>3.066485368173778</v>
       </c>
       <c r="F158">
-        <v>14.65936673024115</v>
+        <v>6.436548692297088</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6.821177537436815</v>
+        <v>1.341705854122511</v>
       </c>
       <c r="C159">
-        <v>8.601346077746625</v>
+        <v>0.06429531920438362</v>
       </c>
       <c r="D159">
-        <v>2.585311160451497</v>
+        <v>0.002560250824843311</v>
       </c>
       <c r="E159">
-        <v>4.41144693733366</v>
+        <v>3.056762810113395</v>
       </c>
       <c r="F159">
-        <v>14.60353473687983</v>
+        <v>6.43056288638675</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6.799902146830716</v>
+        <v>1.31425036308477</v>
       </c>
       <c r="C160">
-        <v>8.561140349266916</v>
+        <v>0.06012742782462374</v>
       </c>
       <c r="D160">
-        <v>2.557764071437949</v>
+        <v>0.002472697099919175</v>
       </c>
       <c r="E160">
-        <v>4.399493536990053</v>
+        <v>3.047049891135218</v>
       </c>
       <c r="F160">
-        <v>14.54780011810071</v>
+        <v>6.424571530556683</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6.778657039814281</v>
+        <v>1.287164445464313</v>
       </c>
       <c r="C161">
-        <v>8.521025015799724</v>
+        <v>0.05620599289766374</v>
       </c>
       <c r="D161">
-        <v>2.530415145482252</v>
+        <v>0.002388720070690122</v>
       </c>
       <c r="E161">
-        <v>4.387553998724489</v>
+        <v>3.037347092150336</v>
       </c>
       <c r="F161">
-        <v>14.49216300809737</v>
+        <v>6.418574965911294</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6.757442295622299</v>
+        <v>1.260448366236687</v>
       </c>
       <c r="C162">
-        <v>8.481000338472457</v>
+        <v>0.05251933811120022</v>
       </c>
       <c r="D162">
-        <v>2.503264284320668</v>
+        <v>0.002308143767560566</v>
       </c>
       <c r="E162">
-        <v>4.375628363257912</v>
+        <v>3.027654877265749</v>
       </c>
       <c r="F162">
-        <v>14.43662354101249</v>
+        <v>6.412573514831049</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6.736257992827927</v>
+        <v>1.234102281811602</v>
       </c>
       <c r="C163">
-        <v>8.441066574680315</v>
+        <v>0.0490560263406688</v>
       </c>
       <c r="D163">
-        <v>2.47631137642213</v>
+        <v>0.002230808353933952</v>
       </c>
       <c r="E163">
-        <v>4.363716670718216</v>
+        <v>3.017973690317787</v>
       </c>
       <c r="F163">
-        <v>14.38118185042623</v>
+        <v>6.406567483324847</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6.715104207659197</v>
+        <v>1.208126242655948</v>
       </c>
       <c r="C164">
-        <v>8.401223980818326</v>
+        <v>0.04580485890652592</v>
       </c>
       <c r="D164">
-        <v>2.449556296778451</v>
+        <v>0.002156561621236161</v>
       </c>
       <c r="E164">
-        <v>4.351818959909508</v>
+        <v>3.008303958940379</v>
       </c>
       <c r="F164">
-        <v>14.32583806845125</v>
+        <v>6.400557170411349</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6.693981014175835</v>
+        <v>1.182520185558271</v>
       </c>
       <c r="C165">
-        <v>8.361472810122223</v>
+        <v>0.04275493882246198</v>
       </c>
       <c r="D165">
-        <v>2.422998906974381</v>
+        <v>0.002085258745315658</v>
       </c>
       <c r="E165">
-        <v>4.33993526786343</v>
+        <v>2.998646094835073</v>
       </c>
       <c r="F165">
-        <v>14.27059232760905</v>
+        <v>6.394542859738101</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6.672888485541331</v>
+        <v>1.157283930011281</v>
       </c>
       <c r="C166">
-        <v>8.321813312990082</v>
+        <v>0.03989567031735207</v>
       </c>
       <c r="D166">
-        <v>2.396639054996472</v>
+        <v>0.002016765468523685</v>
       </c>
       <c r="E166">
-        <v>4.328065631035686</v>
+        <v>2.989000491707769</v>
       </c>
       <c r="F166">
-        <v>14.21544475994815</v>
+        <v>6.388524812059733</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6.651826693380954</v>
+        <v>1.13241718472364</v>
       </c>
       <c r="C167">
-        <v>8.282245738368617</v>
+        <v>0.03721679456535491</v>
       </c>
       <c r="D167">
-        <v>2.370476575134923</v>
+        <v>0.00195095724002823</v>
       </c>
       <c r="E167">
-        <v>4.316210084696017</v>
+        <v>2.979367530402813</v>
       </c>
       <c r="F167">
-        <v>14.16039549636404</v>
+        <v>6.382503289984904</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6.63079570726242</v>
+        <v>1.107919547536895</v>
       </c>
       <c r="C168">
-        <v>8.242770332743508</v>
+        <v>0.03470840674344258</v>
       </c>
       <c r="D168">
-        <v>2.344511288070663</v>
+        <v>0.001887713415112215</v>
       </c>
       <c r="E168">
-        <v>4.30436866290618</v>
+        <v>2.969747576573467</v>
       </c>
       <c r="F168">
-        <v>14.10544466817645</v>
+        <v>6.376478541985447</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6.609795596186378</v>
+        <v>1.083790489741933</v>
       </c>
       <c r="C169">
-        <v>8.203387340378839</v>
+        <v>0.03236095217159039</v>
       </c>
       <c r="D169">
-        <v>2.31874300054779</v>
+        <v>0.001826918812837651</v>
       </c>
       <c r="E169">
-        <v>4.292541399104217</v>
+        <v>2.960140980683757</v>
       </c>
       <c r="F169">
-        <v>14.05059240632917</v>
+        <v>6.370450797146365</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6.588826428071504</v>
+        <v>1.060029367705717</v>
       </c>
       <c r="C170">
-        <v>8.164097004008939</v>
+        <v>0.03016526653639995</v>
       </c>
       <c r="D170">
-        <v>2.293171505435926</v>
+        <v>0.001768460630840729</v>
       </c>
       <c r="E170">
-        <v>4.280728325791186</v>
+        <v>2.950548081813121</v>
       </c>
       <c r="F170">
-        <v>13.99583884113704</v>
+        <v>6.364420281588086</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6.567888269173314</v>
+        <v>1.036635431679623</v>
       </c>
       <c r="C171">
-        <v>8.124899564307508</v>
+        <v>0.02811254448669742</v>
       </c>
       <c r="D171">
-        <v>2.267796581836302</v>
+        <v>0.001712233210499922</v>
       </c>
       <c r="E171">
-        <v>4.26892947449026</v>
+        <v>2.940969205147862</v>
       </c>
       <c r="F171">
-        <v>13.94118410313993</v>
+        <v>6.358387212071364</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6.546981184464393</v>
+        <v>1.013607797840198</v>
       </c>
       <c r="C172">
-        <v>8.085795259980728</v>
+        <v>0.02619437690912323</v>
       </c>
       <c r="D172">
-        <v>2.242617994625332</v>
+        <v>0.001658137112657895</v>
       </c>
       <c r="E172">
-        <v>4.257144876254916</v>
+        <v>2.931404663356306</v>
       </c>
       <c r="F172">
-        <v>13.88662832267923</v>
+        <v>6.352351793364277</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6.526105238808736</v>
+        <v>0.9909454657528242</v>
       </c>
       <c r="C173">
-        <v>8.046784328471329</v>
+        <v>0.02440272307840757</v>
       </c>
       <c r="D173">
-        <v>2.217635494690996</v>
+        <v>0.001606077754034309</v>
       </c>
       <c r="E173">
-        <v>4.245374561317035</v>
+        <v>2.921854758527646</v>
       </c>
       <c r="F173">
-        <v>13.83217162981273</v>
+        <v>6.346314220331728</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6.505260495784253</v>
+        <v>0.9686473290282734</v>
       </c>
       <c r="C174">
-        <v>8.007867005317697</v>
+        <v>0.02272992743742543</v>
       </c>
       <c r="D174">
-        <v>2.19284881895709</v>
+        <v>0.001555967184536811</v>
       </c>
       <c r="E174">
-        <v>4.233618559098747</v>
+        <v>2.912319780140435</v>
       </c>
       <c r="F174">
-        <v>13.77781415476675</v>
+        <v>6.340274682922415</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6.484447017201072</v>
+        <v>0.9467121502193614</v>
       </c>
       <c r="C175">
-        <v>7.969043524226562</v>
+        <v>0.02116870550680466</v>
       </c>
       <c r="D175">
-        <v>2.168257689957535</v>
+        <v>0.00150771996379951</v>
       </c>
       <c r="E175">
-        <v>4.22187689867331</v>
+        <v>2.902800007618699</v>
       </c>
       <c r="F175">
-        <v>13.7235560277296</v>
+        <v>6.334233361935122</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6.463664865128186</v>
+        <v>0.9251385712266958</v>
       </c>
       <c r="C176">
-        <v>7.930314117858501</v>
+        <v>0.01971213586960188</v>
       </c>
       <c r="D176">
-        <v>2.143861816152939</v>
+        <v>0.00146125585121781</v>
       </c>
       <c r="E176">
-        <v>4.210149608376492</v>
+        <v>2.893295710238747</v>
       </c>
       <c r="F176">
-        <v>13.66939737870771</v>
+        <v>6.328190428759217</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6.442914100552704</v>
+        <v>0.9039251243284282</v>
       </c>
       <c r="C177">
-        <v>7.8916790171019</v>
+        <v>0.0183536634432114</v>
       </c>
       <c r="D177">
-        <v>2.119660891829606</v>
+        <v>0.001416501287342178</v>
       </c>
       <c r="E177">
-        <v>4.198436715927826</v>
+        <v>2.883807146194241</v>
       </c>
       <c r="F177">
-        <v>13.61533833798503</v>
+        <v>6.322146050339221</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6.422194783258692</v>
+        <v>0.8830702247163855</v>
       </c>
       <c r="C178">
-        <v>7.853138451191234</v>
+        <v>0.01708707371742176</v>
       </c>
       <c r="D178">
-        <v>2.095654596813735</v>
+        <v>0.001373385257293319</v>
       </c>
       <c r="E178">
-        <v>4.18673824871238</v>
+        <v>2.874334565272875</v>
       </c>
       <c r="F178">
-        <v>13.56137903589104</v>
+        <v>6.316100386461701</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6.401506972700719</v>
+        <v>0.8625721590668809</v>
       </c>
       <c r="C179">
-        <v>7.814692648332942</v>
+        <v>0.01590649840390513</v>
       </c>
       <c r="D179">
-        <v>2.071842596979925</v>
+        <v>0.001331836350198983</v>
       </c>
       <c r="E179">
-        <v>4.175054233499086</v>
+        <v>2.86487820768241</v>
       </c>
       <c r="F179">
-        <v>13.50751960261415</v>
+        <v>6.310053588443338</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6.380850727677241</v>
+        <v>0.8424291039586083</v>
       </c>
       <c r="C180">
-        <v>7.776341835146441</v>
+        <v>0.01480639082477613</v>
       </c>
       <c r="D180">
-        <v>2.048224543724995</v>
+        <v>0.001291787022454589</v>
       </c>
       <c r="E180">
-        <v>4.163384696606629</v>
+        <v>2.855438304212974</v>
       </c>
       <c r="F180">
-        <v>13.4537601687179</v>
+        <v>6.304005803481042</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6.360226106231862</v>
+        <v>0.8226391327968275</v>
       </c>
       <c r="C181">
-        <v>7.738086236789557</v>
+        <v>0.01378152383984804</v>
       </c>
       <c r="D181">
-        <v>2.02480007387034</v>
+        <v>0.001253169933670676</v>
       </c>
       <c r="E181">
-        <v>4.15172966401347</v>
+        <v>2.846015078070952</v>
       </c>
       <c r="F181">
-        <v>13.40010086485339</v>
+        <v>6.297957173277442</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6.339633165777226</v>
+        <v>0.8032001863946419</v>
       </c>
       <c r="C182">
-        <v>7.699926077337778</v>
+        <v>0.01282697129320132</v>
       </c>
       <c r="D182">
-        <v>2.001568809819835</v>
+        <v>0.001215928137069141</v>
       </c>
       <c r="E182">
-        <v>4.140089161200587</v>
+        <v>2.836608743702754</v>
       </c>
       <c r="F182">
-        <v>13.34654182163104</v>
+        <v>6.291907832720462</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6.319071963351311</v>
+        <v>0.784110096921634</v>
       </c>
       <c r="C183">
-        <v>7.661861579449226</v>
+        <v>0.01193809790403407</v>
       </c>
       <c r="D183">
-        <v>1.978530360182985</v>
+        <v>0.001180005657797644</v>
       </c>
       <c r="E183">
-        <v>4.128463213316182</v>
+        <v>2.827219507616064</v>
       </c>
       <c r="F183">
-        <v>13.29308317003538</v>
+        <v>6.285857910847087</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6.298542555411674</v>
+        <v>0.7653666058161266</v>
       </c>
       <c r="C184">
-        <v>7.623892964456099</v>
+        <v>0.01111054650492179</v>
       </c>
       <c r="D184">
-        <v>1.955684319427784</v>
+        <v>0.001145350478404876</v>
       </c>
       <c r="E184">
-        <v>4.116851845194685</v>
+        <v>2.817847569325041</v>
       </c>
       <c r="F184">
-        <v>13.23972504118933</v>
+        <v>6.279807533773186</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6.278044997710533</v>
+        <v>0.7469673225687785</v>
       </c>
       <c r="C185">
-        <v>7.586020452606976</v>
+        <v>0.01034022478863095</v>
       </c>
       <c r="D185">
-        <v>1.933030266458274</v>
+        <v>0.001111910483357835</v>
       </c>
       <c r="E185">
-        <v>4.105255081155138</v>
+        <v>2.808493120288232</v>
       </c>
       <c r="F185">
-        <v>13.18646756629885</v>
+        <v>6.273756822018578</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6.257579345836911</v>
+        <v>0.7289097542326634</v>
       </c>
       <c r="C186">
-        <v>7.548244262829801</v>
+        <v>0.009623293121334184</v>
       </c>
       <c r="D186">
-        <v>1.910567766076396</v>
+        <v>0.001079631785755577</v>
       </c>
       <c r="E186">
-        <v>4.093672945383611</v>
+        <v>2.799156345450214</v>
       </c>
       <c r="F186">
-        <v>13.13331087690539</v>
+        <v>6.267705889465252</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6.237145654895941</v>
+        <v>0.7111913167422522</v>
       </c>
       <c r="C187">
-        <v>7.510564612797118</v>
+        <v>0.00895615021607625</v>
       </c>
       <c r="D187">
-        <v>1.888296369135349</v>
+        <v>0.001048469869439348</v>
       </c>
       <c r="E187">
-        <v>4.082105461788614</v>
+        <v>2.78983742306975</v>
       </c>
       <c r="F187">
-        <v>13.0802551047474</v>
+        <v>6.261654848213465</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6.2167439793038</v>
+        <v>0.6938093155286458</v>
       </c>
       <c r="C188">
-        <v>7.472981719141847</v>
+        <v>0.008335422375774263</v>
       </c>
       <c r="D188">
-        <v>1.866215613867873</v>
+        <v>0.001018381457958465</v>
       </c>
       <c r="E188">
-        <v>4.070552654045662</v>
+        <v>2.78053652427344</v>
       </c>
       <c r="F188">
-        <v>13.02730038172776</v>
+        <v>6.255603805545713</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6.196374373319942</v>
+        <v>0.6767609506157748</v>
       </c>
       <c r="C189">
-        <v>7.435495797219284</v>
+        <v>0.007757950671785407</v>
       </c>
       <c r="D189">
-        <v>1.844325021388001</v>
+        <v>0.0009893272929565244</v>
       </c>
       <c r="E189">
-        <v>4.059014545297664</v>
+        <v>2.771253814581281</v>
       </c>
       <c r="F189">
-        <v>12.97444684007747</v>
+        <v>6.249552863436975</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6.176036890852566</v>
+        <v>0.6600433336542391</v>
       </c>
       <c r="C190">
-        <v>7.398107061169338</v>
+        <v>0.007220779301077521</v>
       </c>
       <c r="D190">
-        <v>1.822624099387179</v>
+        <v>0.0009612704173945785</v>
       </c>
       <c r="E190">
-        <v>4.047491158484831</v>
+        <v>2.761989453061887</v>
       </c>
       <c r="F190">
-        <v>12.92169461226842</v>
+        <v>6.243502121153306</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6.155731585327204</v>
+        <v>0.6436534875961873</v>
       </c>
       <c r="C191">
-        <v>7.360815724119464</v>
+        <v>0.006721143591643634</v>
       </c>
       <c r="D191">
-        <v>1.801112341237186</v>
+        <v>0.0009341614066078523</v>
       </c>
       <c r="E191">
-        <v>4.035982516680377</v>
+        <v>2.752743592459615</v>
       </c>
       <c r="F191">
-        <v>12.86904383097115</v>
+        <v>6.237451674371916</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6.135458509767759</v>
+        <v>0.6275883302923831</v>
       </c>
       <c r="C192">
-        <v>7.32362199795179</v>
+        <v>0.006256460948247792</v>
       </c>
       <c r="D192">
-        <v>1.779789228900717</v>
+        <v>0.0009079620578382299</v>
       </c>
       <c r="E192">
-        <v>4.024488642655607</v>
+        <v>2.743516380899057</v>
       </c>
       <c r="F192">
-        <v>12.81649462920657</v>
+        <v>6.231401614788857</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6.115217717056691</v>
+        <v>0.6118446969593961</v>
       </c>
       <c r="C193">
-        <v>7.286526093365898</v>
+        <v>0.005824317241699463</v>
       </c>
       <c r="D193">
-        <v>1.758654226730886</v>
+        <v>0.0008826379886588549</v>
       </c>
       <c r="E193">
-        <v>4.013009558873706</v>
+        <v>2.734307961076784</v>
       </c>
       <c r="F193">
-        <v>12.76404714026015</v>
+        <v>6.225352030582933</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6.09500925969931</v>
+        <v>0.5964193513759762</v>
       </c>
       <c r="C194">
-        <v>7.249528220038307</v>
+        <v>0.005422460282174303</v>
       </c>
       <c r="D194">
-        <v>1.737706786079611</v>
+        <v>0.0008581592739806193</v>
       </c>
       <c r="E194">
-        <v>4.001545287041024</v>
+        <v>2.725118470110819</v>
       </c>
       <c r="F194">
-        <v>12.71170149763631</v>
+        <v>6.219303007463779</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6.07483318977445</v>
+        <v>0.5813089584332158</v>
       </c>
       <c r="C195">
-        <v>7.212628586434042</v>
+        <v>0.005048786692763338</v>
       </c>
       <c r="D195">
-        <v>1.716946344150759</v>
+        <v>0.0008344881190534026</v>
       </c>
       <c r="E195">
-        <v>3.990095849599795</v>
+        <v>2.715948038104248</v>
       </c>
       <c r="F195">
-        <v>12.6594578352073</v>
+        <v>6.213254627837221</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6.054689559248043</v>
+        <v>0.5665101086257329</v>
       </c>
       <c r="C196">
-        <v>7.17582739986024</v>
+        <v>0.004701335640815745</v>
       </c>
       <c r="D196">
-        <v>1.696372326025319</v>
+        <v>0.0008115928634509092</v>
       </c>
       <c r="E196">
-        <v>3.978661268537492</v>
+        <v>2.706796793664374</v>
       </c>
       <c r="F196">
-        <v>12.60731628712396</v>
+        <v>6.207206970418649</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6.034578419780213</v>
+        <v>0.5520193323684842</v>
       </c>
       <c r="C197">
-        <v>7.139124866574375</v>
+        <v>0.004378277901829337</v>
       </c>
       <c r="D197">
-        <v>1.675984141318551</v>
+        <v>0.0007894474929156825</v>
       </c>
       <c r="E197">
-        <v>3.967241565730394</v>
+        <v>2.697664859942093</v>
       </c>
       <c r="F197">
-        <v>12.55527698778223</v>
+        <v>6.201160112192458</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6.01449982269693</v>
+        <v>0.5378330749299199</v>
       </c>
       <c r="C198">
-        <v>7.102521191644508</v>
+        <v>0.004077908416950031</v>
       </c>
       <c r="D198">
-        <v>1.655781185767398</v>
+        <v>0.0007680250456057603</v>
       </c>
       <c r="E198">
-        <v>3.955836762277527</v>
+        <v>2.688552355473377</v>
       </c>
       <c r="F198">
-        <v>12.50334007194438</v>
+        <v>6.195114127283725</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5.99445381915191</v>
+        <v>0.5239477166003373</v>
       </c>
       <c r="C199">
-        <v>7.066016578990235</v>
+        <v>0.003798639223719565</v>
       </c>
       <c r="D199">
-        <v>1.635762841562842</v>
+        <v>0.0007472947265291185</v>
       </c>
       <c r="E199">
-        <v>3.944446879824979</v>
+        <v>2.679459390401122</v>
       </c>
       <c r="F199">
-        <v>12.45150567466448</v>
+        <v>6.189069086426128</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5.974440460079093</v>
+        <v>0.5103595813432734</v>
       </c>
       <c r="C200">
-        <v>7.029611231458663</v>
+        <v>0.003538989389203333</v>
       </c>
       <c r="D200">
-        <v>1.615928478304717</v>
+        <v>0.0007272347640623799</v>
       </c>
       <c r="E200">
-        <v>3.933071939744873</v>
+        <v>2.670386076160618</v>
       </c>
       <c r="F200">
-        <v>12.3997739312678</v>
+        <v>6.183025058642655</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>5.954459796150828</v>
+        <v>0.497064932394329</v>
       </c>
       <c r="C201">
-        <v>6.993305350709088</v>
+        <v>0.003297581668360714</v>
       </c>
       <c r="D201">
-        <v>1.596277451937956</v>
+        <v>0.0007078151930847195</v>
       </c>
       <c r="E201">
-        <v>3.921711963265308</v>
+        <v>2.661332518493053</v>
       </c>
       <c r="F201">
-        <v>12.34814497743683</v>
+        <v>6.176982110657914</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5.934511877807677</v>
+        <v>0.4840599724647629</v>
       </c>
       <c r="C202">
-        <v>6.957099137246555</v>
+        <v>0.003073131955575098</v>
       </c>
       <c r="D202">
-        <v>1.576809103972518</v>
+        <v>0.000689015132921417</v>
       </c>
       <c r="E202">
-        <v>3.910366971348048</v>
+        <v>2.652298819452646</v>
       </c>
       <c r="F202">
-        <v>12.29661894915736</v>
+        <v>6.170940306556483</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5.914596755357937</v>
+        <v>0.4713408567518343</v>
       </c>
       <c r="C203">
-        <v>6.92099279048315</v>
+        <v>0.002864446583356632</v>
       </c>
       <c r="D203">
-        <v>1.557522762996151</v>
+        <v>0.0006708118843423608</v>
       </c>
       <c r="E203">
-        <v>3.899036984861075</v>
+        <v>2.64328507317573</v>
       </c>
       <c r="F203">
-        <v>12.24519598270245</v>
+        <v>6.164899708099928</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>5.894714478891779</v>
+        <v>0.4589036971627124</v>
       </c>
       <c r="C204">
-        <v>6.884986508591067</v>
+        <v>0.002670413584539509</v>
       </c>
       <c r="D204">
-        <v>1.53841774491814</v>
+        <v>0.0006531778647131707</v>
       </c>
       <c r="E204">
-        <v>3.887722024721719</v>
+        <v>2.634291375045443</v>
       </c>
       <c r="F204">
-        <v>12.19387621469713</v>
+        <v>6.158860375522011</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5.874865098231059</v>
+        <v>0.4467445553459674</v>
       </c>
       <c r="C205">
-        <v>6.849080488580966</v>
+        <v>0.002489998984701718</v>
       </c>
       <c r="D205">
-        <v>1.519493353453782</v>
+        <v>0.000636098024583866</v>
       </c>
       <c r="E205">
-        <v>3.876422111683659</v>
+        <v>2.625317815332084</v>
       </c>
       <c r="F205">
-        <v>12.14265978207204</v>
+        <v>6.152822366850002</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5.855048663122901</v>
+        <v>0.4348594556753722</v>
       </c>
       <c r="C206">
-        <v>6.81327492639149</v>
+        <v>0.002322241052214523</v>
       </c>
       <c r="D206">
-        <v>1.500748877638587</v>
+        <v>0.0006195533023332493</v>
       </c>
       <c r="E206">
-        <v>3.865137266393854</v>
+        <v>2.616364480983825</v>
       </c>
       <c r="F206">
-        <v>12.09154682202685</v>
+        <v>6.146785737723354</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5.835265223118854</v>
+        <v>0.4232443914428732</v>
       </c>
       <c r="C207">
-        <v>6.777570016781682</v>
+        <v>0.002166244585483832</v>
       </c>
       <c r="D207">
-        <v>1.482183594253958</v>
+        <v>0.0006035232643960381</v>
       </c>
       <c r="E207">
-        <v>3.853867509340344</v>
+        <v>2.607431453683836</v>
       </c>
       <c r="F207">
-        <v>12.04053747214823</v>
+        <v>6.140750542561084</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5.815514827538061</v>
+        <v>0.4118953196299621</v>
       </c>
       <c r="C208">
-        <v>6.741965953334582</v>
+        <v>0.002021178315369014</v>
       </c>
       <c r="D208">
-        <v>1.463796767532927</v>
+        <v>0.0005879890021573331</v>
       </c>
       <c r="E208">
-        <v>3.842612861055009</v>
+        <v>2.59851881375292</v>
       </c>
       <c r="F208">
-        <v>11.98963187033244</v>
+        <v>6.134716833885029</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5.795797525590789</v>
+        <v>0.4008081711595354</v>
       </c>
       <c r="C209">
-        <v>6.706462928030261</v>
+        <v>0.001886267964421352</v>
       </c>
       <c r="D209">
-        <v>1.445587651090711</v>
+        <v>0.0005729316065914352</v>
       </c>
       <c r="E209">
-        <v>3.83137334196052</v>
+        <v>2.589626638141753</v>
       </c>
       <c r="F209">
-        <v>11.9388301548085</v>
+        <v>6.128684662142307</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>5.776113366338443</v>
+        <v>0.3899788544002742</v>
       </c>
       <c r="C210">
-        <v>6.671061132206415</v>
+        <v>0.001760795040085258</v>
       </c>
       <c r="D210">
-        <v>1.427555483601569</v>
+        <v>0.0005583328483416227</v>
       </c>
       <c r="E210">
-        <v>3.820148972421609</v>
+        <v>2.580755000669964</v>
       </c>
       <c r="F210">
-        <v>11.88813246402879</v>
+        <v>6.122654076496432</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>5.756462398664607</v>
+        <v>0.3794032575171774</v>
       </c>
       <c r="C211">
-        <v>6.635760755830902</v>
+        <v>0.001644090642457407</v>
       </c>
       <c r="D211">
-        <v>1.409699492326345</v>
+        <v>0.0005441771297470353</v>
       </c>
       <c r="E211">
-        <v>3.808939772615768</v>
+        <v>2.571903971435644</v>
       </c>
       <c r="F211">
-        <v>11.83753893678299</v>
+        <v>6.11662512457467</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5.736844671292042</v>
+        <v>0.3690772530948592</v>
       </c>
       <c r="C212">
-        <v>6.600561987686444</v>
+        <v>0.001535533789055838</v>
       </c>
       <c r="D212">
-        <v>1.392018892343751</v>
+        <v>0.0005304480353980226</v>
       </c>
       <c r="E212">
-        <v>3.797745762804494</v>
+        <v>2.563073618247991</v>
       </c>
       <c r="F212">
-        <v>11.78704971228768</v>
+        <v>6.11059785231785</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5.717260232840855</v>
+        <v>0.3589967007435493</v>
       </c>
       <c r="C213">
-        <v>6.565465015014519</v>
+        <v>0.001434547106941405</v>
       </c>
       <c r="D213">
-        <v>1.374512889033463</v>
+        <v>0.000517132411375271</v>
       </c>
       <c r="E213">
-        <v>3.786566963169066</v>
+        <v>2.554264006400885</v>
       </c>
       <c r="F213">
-        <v>11.73666493004069</v>
+        <v>6.104572304152525</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5.697709131779205</v>
+        <v>0.3491574515704671</v>
       </c>
       <c r="C214">
-        <v>6.530470023829961</v>
+        <v>0.001340593912624954</v>
       </c>
       <c r="D214">
-        <v>1.357180673732751</v>
+        <v>0.0005042157413029387</v>
       </c>
       <c r="E214">
-        <v>3.775403393843578</v>
+        <v>2.545475198429116</v>
       </c>
       <c r="F214">
-        <v>11.68638472987094</v>
+        <v>6.098548523396902</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5.678191416406497</v>
+        <v>0.3395553538231544</v>
       </c>
       <c r="C215">
-        <v>6.495577199247854</v>
+        <v>0.001253176165087845</v>
       </c>
       <c r="D215">
-        <v>1.340021426713679</v>
+        <v>0.0004916853570761745</v>
       </c>
       <c r="E215">
-        <v>3.764255074829417</v>
+        <v>2.536707253639991</v>
       </c>
       <c r="F215">
-        <v>11.63620925160446</v>
+        <v>6.092526551927017</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5.658707134935639</v>
+        <v>0.3301862535681024</v>
       </c>
       <c r="C216">
-        <v>6.460786724960778</v>
+        <v>0.00117183022845996</v>
       </c>
       <c r="D216">
-        <v>1.323034316920635</v>
+        <v>0.0004795277667047959</v>
       </c>
       <c r="E216">
-        <v>3.753122026097587</v>
+        <v>2.527960229015718</v>
       </c>
       <c r="F216">
-        <v>11.58613863577436</v>
+        <v>6.086506430036676</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5.63925633544318</v>
+        <v>0.3210459962088872</v>
       </c>
       <c r="C217">
-        <v>6.426098783376299</v>
+        <v>0.001096126308436673</v>
       </c>
       <c r="D217">
-        <v>1.306218503326885</v>
+        <v>0.0004677300138343886</v>
       </c>
       <c r="E217">
-        <v>3.742004267664245</v>
+        <v>2.519234179683843</v>
       </c>
       <c r="F217">
-        <v>11.53617302309278</v>
+        <v>6.080488197175086</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5.619839065852076</v>
+        <v>0.3121304378424573</v>
       </c>
       <c r="C218">
-        <v>6.39151355508122</v>
+        <v>0.001025664356296007</v>
       </c>
       <c r="D218">
-        <v>1.289573133315463</v>
+        <v>0.0004562793820561768</v>
       </c>
       <c r="E218">
-        <v>3.730901819472094</v>
+        <v>2.51052915823014</v>
       </c>
       <c r="F218">
-        <v>11.48631255458633</v>
+        <v>6.074471891518879</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5.600455373987319</v>
+        <v>0.3034354430389828</v>
       </c>
       <c r="C219">
-        <v>6.357031219995009</v>
+        <v>0.000960073360607838</v>
       </c>
       <c r="D219">
-        <v>1.273097342898048</v>
+        <v>0.0004451630666954151</v>
       </c>
       <c r="E219">
-        <v>3.71981470140622</v>
+        <v>2.501845214437194</v>
       </c>
       <c r="F219">
-        <v>11.43655737150068</v>
+        <v>6.068457549830729</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5.581105307559607</v>
+        <v>0.2949568800739364</v>
       </c>
       <c r="C220">
-        <v>6.322651956477761</v>
+        <v>0.0008990083381604131</v>
       </c>
       <c r="D220">
-        <v>1.256790257779429</v>
+        <v>0.0004343699970193479</v>
       </c>
       <c r="E220">
-        <v>3.708742933231198</v>
+        <v>2.493182395632292</v>
       </c>
       <c r="F220">
-        <v>11.38690761529848</v>
+        <v>6.062445208005467</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5.561788914147644</v>
+        <v>0.2866906422863537</v>
       </c>
       <c r="C221">
-        <v>6.288375941544984</v>
+        <v>0.0008421489430369596</v>
       </c>
       <c r="D221">
-        <v>1.240650993836654</v>
+        <v>0.0004238880745113631</v>
       </c>
       <c r="E221">
-        <v>3.697686534814819</v>
+        <v>2.484540747902833</v>
       </c>
       <c r="F221">
-        <v>11.33736342793471</v>
+        <v>6.056434900885063</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5.54250624120589</v>
+        <v>0.2786326395821854</v>
       </c>
       <c r="C222">
-        <v>6.254203350717249</v>
+        <v>0.0007891978802298933</v>
       </c>
       <c r="D222">
-        <v>1.224678657125729</v>
+        <v>0.0004137080866818082</v>
       </c>
       <c r="E222">
-        <v>3.686645525948453</v>
+        <v>2.47592031492802</v>
       </c>
       <c r="F222">
-        <v>11.2879249515744</v>
+        <v>6.050426662058558</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5.523257336100609</v>
+        <v>0.270778796381788</v>
       </c>
       <c r="C223">
-        <v>6.220134358112882</v>
+        <v>0.000739878539236802</v>
       </c>
       <c r="D223">
-        <v>1.208872342608575</v>
+        <v>0.000403819100118458</v>
       </c>
       <c r="E223">
-        <v>3.67561992639981</v>
+        <v>2.467321138066448</v>
       </c>
       <c r="F223">
-        <v>11.23859232867246</v>
+        <v>6.044420524095052</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5.50404224607429</v>
+        <v>0.2631250647033858</v>
       </c>
       <c r="C224">
-        <v>6.186169136602821</v>
+        <v>0.0006939345855959226</v>
       </c>
       <c r="D224">
-        <v>1.193231135866137</v>
+        <v>0.0003942127733589791</v>
       </c>
       <c r="E224">
-        <v>3.664609755842928</v>
+        <v>2.458743256185624</v>
       </c>
       <c r="F224">
-        <v>11.18936570184531</v>
+        <v>6.038416518935477</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5.484861018214307</v>
+        <v>0.2556674264414316</v>
       </c>
       <c r="C225">
-        <v>6.152307857565489</v>
+        <v>0.0006511276743001266</v>
       </c>
       <c r="D225">
-        <v>1.177754113173066</v>
+        <v>0.0003848791741759102</v>
       </c>
       <c r="E225">
-        <v>3.653615034003428</v>
+        <v>2.450186707197751</v>
       </c>
       <c r="F225">
-        <v>11.14024521409485</v>
+        <v>6.032414677551252</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5.465713699563069</v>
+        <v>0.2484018876651475</v>
       </c>
       <c r="C226">
-        <v>6.118550690942223</v>
+        <v>0.0006112372931388008</v>
       </c>
       <c r="D226">
-        <v>1.162440342636513</v>
+        <v>0.0003758093894465886</v>
       </c>
       <c r="E226">
-        <v>3.64263578056777</v>
+        <v>2.441651526816231</v>
       </c>
       <c r="F226">
-        <v>11.09123100868903</v>
+        <v>6.026415030115034</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5.446600337041922</v>
+        <v>0.2413244821862404</v>
       </c>
       <c r="C227">
-        <v>6.084897805080598</v>
+        <v>0.0005740570084914257</v>
       </c>
       <c r="D227">
-        <v>1.147288881541586</v>
+        <v>0.0003669939536925507</v>
       </c>
       <c r="E227">
-        <v>3.63167201520161</v>
+        <v>2.433137748832416</v>
       </c>
       <c r="F227">
-        <v>11.04232322914845</v>
+        <v>6.020417605337738</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5.427520977474332</v>
+        <v>0.2344312863181719</v>
       </c>
       <c r="C228">
-        <v>6.051349367022887</v>
+        <v>0.0005393969053694677</v>
       </c>
       <c r="D228">
-        <v>1.132298778869656</v>
+        <v>0.0003584237239440677</v>
       </c>
       <c r="E228">
-        <v>3.620723757532452</v>
+        <v>2.424645404734944</v>
       </c>
       <c r="F228">
-        <v>10.99352201924119</v>
+        <v>6.014422431135157</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5.408475667574591</v>
+        <v>0.2277184089435457</v>
       </c>
       <c r="C229">
-        <v>6.017905542262749</v>
+        <v>0.0005070792133422247</v>
       </c>
       <c r="D229">
-        <v>1.117469074907927</v>
+        <v>0.0003500974487308535</v>
       </c>
       <c r="E229">
-        <v>3.609791027175531</v>
+        <v>2.416174525080331</v>
       </c>
       <c r="F229">
-        <v>10.94482752293733</v>
+        <v>6.008429535526698</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5.389464453811327</v>
+        <v>0.2211819868173051</v>
       </c>
       <c r="C230">
-        <v>5.984566494787702</v>
+        <v>0.0004769367704233676</v>
       </c>
       <c r="D230">
-        <v>1.102798803069464</v>
+        <v>0.0003420022482268751</v>
       </c>
       <c r="E230">
-        <v>3.598873843751182</v>
+        <v>2.407725138499659</v>
       </c>
       <c r="F230">
-        <v>10.89623988454375</v>
+        <v>6.002438945458588</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5.370487382757105</v>
+        <v>0.2148182094701294</v>
       </c>
       <c r="C231">
-        <v>5.951332386989627</v>
+        <v>0.000448820366770446</v>
       </c>
       <c r="D231">
-        <v>1.088286986761139</v>
+        <v>0.0003341317890845765</v>
       </c>
       <c r="E231">
-        <v>3.587972226859272</v>
+        <v>2.399297271984349</v>
       </c>
       <c r="F231">
-        <v>10.84775924858332</v>
+        <v>5.996450687249745</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5.351544500816767</v>
+        <v>0.2086233056163271</v>
       </c>
       <c r="C232">
-        <v>5.918203379693646</v>
+        <v>0.0004225851154878922</v>
       </c>
       <c r="D232">
-        <v>1.073932642047603</v>
+        <v>0.0003264761239648389</v>
       </c>
       <c r="E232">
-        <v>3.577086196081174</v>
+        <v>2.390890950433524</v>
       </c>
       <c r="F232">
-        <v>10.79938575982274</v>
+        <v>5.990464785610339</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5.332635854303092</v>
+        <v>0.2025935349261279</v>
       </c>
       <c r="C233">
-        <v>5.885179632254694</v>
+        <v>0.000398098647365853</v>
       </c>
       <c r="D233">
-        <v>1.05973477725042</v>
+        <v>0.0003190271705015541</v>
       </c>
       <c r="E233">
-        <v>3.566215770961735</v>
+        <v>2.382506197873103</v>
       </c>
       <c r="F233">
-        <v>10.75111956314476</v>
+        <v>5.984481264548453</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5.313761489429743</v>
+        <v>0.1967252139675677</v>
       </c>
       <c r="C234">
-        <v>5.85226130240001</v>
+        <v>0.0003752405387197985</v>
       </c>
       <c r="D234">
-        <v>1.045692394137246</v>
+        <v>0.0003117844765975606</v>
       </c>
       <c r="E234">
-        <v>3.555360971079003</v>
+        <v>2.374143036632187</v>
       </c>
       <c r="F234">
-        <v>10.70296080373597</v>
+        <v>5.978500148704047</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5.29492145207672</v>
+        <v>0.1910147045448624</v>
       </c>
       <c r="C235">
-        <v>5.819448546254986</v>
+        <v>0.0003538953866208602</v>
       </c>
       <c r="D235">
-        <v>1.031804486579716</v>
+        <v>0.0003047349332980707</v>
       </c>
       <c r="E235">
-        <v>3.54452181598937</v>
+        <v>2.365801487620661</v>
       </c>
       <c r="F235">
-        <v>10.65490962707024</v>
+        <v>5.972521461537381</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5.276115788338866</v>
+        <v>0.1854584086663643</v>
       </c>
       <c r="C236">
-        <v>5.786741518134074</v>
+        <v>0.0003339585293994463</v>
       </c>
       <c r="D236">
-        <v>1.018070041389027</v>
+        <v>0.0002978808738800704</v>
       </c>
       <c r="E236">
-        <v>3.533698325244738</v>
+        <v>2.357481569770713</v>
       </c>
       <c r="F236">
-        <v>10.60696617880426</v>
+        <v>5.966545225966022</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5.257344544101672</v>
+        <v>0.1800527781949622</v>
       </c>
       <c r="C237">
-        <v>5.754140370922797</v>
+        <v>0.0003153323462289614</v>
       </c>
       <c r="D237">
-        <v>1.004488038789732</v>
+        <v>0.00029120929949496</v>
       </c>
       <c r="E237">
-        <v>3.522890518345692</v>
+        <v>2.349183301301007</v>
       </c>
       <c r="F237">
-        <v>10.55913060481527</v>
+        <v>5.9605714635797</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5.238607765155131</v>
+        <v>0.1747943211837418</v>
       </c>
       <c r="C238">
-        <v>5.721645255762326</v>
+        <v>0.0002979253899403147</v>
       </c>
       <c r="D238">
-        <v>0.9910574529634197</v>
+        <v>0.0002847131623049078</v>
       </c>
       <c r="E238">
-        <v>3.512098414837999</v>
+        <v>2.340906698896389</v>
       </c>
       <c r="F238">
-        <v>10.51140305119748</v>
+        <v>5.954600195320343</v>
       </c>
     </row>
   </sheetData>
